--- a/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>

--- a/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2911EA9D-1121-4585-B76C-0D2C71C8CD23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="449">
   <si>
     <t>id</t>
   </si>
@@ -51,306 +52,6 @@
     <t>dspec_id</t>
   </si>
   <si>
-    <t>85:bb:97:4b:14:05</t>
-  </si>
-  <si>
-    <t>cd:27:9d:d6:f4:7b</t>
-  </si>
-  <si>
-    <t>6b:d5:10:4b:3a:9e</t>
-  </si>
-  <si>
-    <t>05:0c:bb:36:3d:aa</t>
-  </si>
-  <si>
-    <t>bc:34:3e:e4:40:0d</t>
-  </si>
-  <si>
-    <t>8c:ae:12:9b:53:45</t>
-  </si>
-  <si>
-    <t>d4:98:44:dd:aa:f1</t>
-  </si>
-  <si>
-    <t>f2:26:5c:a9:88:63</t>
-  </si>
-  <si>
-    <t>2b:b1:c9:70:9d:da</t>
-  </si>
-  <si>
-    <t>94:e0:20:b1:c1:11</t>
-  </si>
-  <si>
-    <t>d7:88:e6:e4:9b:33</t>
-  </si>
-  <si>
-    <t>a7:64:1c:bf:97:c2</t>
-  </si>
-  <si>
-    <t>26:52:ca:b8:4b:ca</t>
-  </si>
-  <si>
-    <t>d6:0b:0f:fc:d0:b8</t>
-  </si>
-  <si>
-    <t>de:34:78:77:7e:ed</t>
-  </si>
-  <si>
-    <t>dc:e5:9c:a8:84:ab</t>
-  </si>
-  <si>
-    <t>dc:66:e1:05:ef:66</t>
-  </si>
-  <si>
-    <t>2d:f1:90:89:64:ac</t>
-  </si>
-  <si>
-    <t>91:16:2f:35:1f:9f</t>
-  </si>
-  <si>
-    <t>cb:b1:03:83:80:1d</t>
-  </si>
-  <si>
-    <t>11:fb:cf:6a:bf:29</t>
-  </si>
-  <si>
-    <t>6d:a3:60:2e:b8:2f</t>
-  </si>
-  <si>
-    <t>08:4b:68:23:1a:e6</t>
-  </si>
-  <si>
-    <t>de:be:02:60:64:4d</t>
-  </si>
-  <si>
-    <t>bc:b8:7f:f8:2f:30</t>
-  </si>
-  <si>
-    <t>52:d5:92:5a:27:04</t>
-  </si>
-  <si>
-    <t>bb:dc:5f:96:f3:27</t>
-  </si>
-  <si>
-    <t>77:a4:f0:6a:c6:53</t>
-  </si>
-  <si>
-    <t>85:90:5d:b6:99:bc</t>
-  </si>
-  <si>
-    <t>d0:18:f8:41:82:e9</t>
-  </si>
-  <si>
-    <t>a1:67:fa:cb:41:6e</t>
-  </si>
-  <si>
-    <t>f1:5b:c5:0d:9f:be</t>
-  </si>
-  <si>
-    <t>95:79:72:7a:5b:6e</t>
-  </si>
-  <si>
-    <t>3c:c6:d3:f1:53:3c</t>
-  </si>
-  <si>
-    <t>55:67:1d:45:37:70</t>
-  </si>
-  <si>
-    <t>12:34:54:1f:8b:27</t>
-  </si>
-  <si>
-    <t>d6:f9:de:3c:be:96</t>
-  </si>
-  <si>
-    <t>aa:d8:dc:3a:0a:a8</t>
-  </si>
-  <si>
-    <t>0d:1b:b0:5a:d9:98</t>
-  </si>
-  <si>
-    <t>fa:60:ac:d0:54:1c</t>
-  </si>
-  <si>
-    <t>b3:62:78:07:d4:d1</t>
-  </si>
-  <si>
-    <t>f8:69:df:bd:eb:c9</t>
-  </si>
-  <si>
-    <t>1c:4e:80:b6:91:b3</t>
-  </si>
-  <si>
-    <t>66:2b:aa:8e:9c:1f</t>
-  </si>
-  <si>
-    <t>6c:23:a2:93:6a:0b</t>
-  </si>
-  <si>
-    <t>ca:c8:b9:70:86:7c</t>
-  </si>
-  <si>
-    <t>ed:e0:cf:f5:84:20</t>
-  </si>
-  <si>
-    <t>44:76:fb:84:b7:5e</t>
-  </si>
-  <si>
-    <t>eb:90:ba:9d:14:57</t>
-  </si>
-  <si>
-    <t>f1:c5:13:c3:34:9f</t>
-  </si>
-  <si>
-    <t>c5:de:a4:58:43:39</t>
-  </si>
-  <si>
-    <t>f1:d5:0b:6b:e4:b4</t>
-  </si>
-  <si>
-    <t>46:ba:9d:e8:60:c0</t>
-  </si>
-  <si>
-    <t>14:69:34:b7:21:bb</t>
-  </si>
-  <si>
-    <t>ba:de:90:af:c4:6e</t>
-  </si>
-  <si>
-    <t>8d:28:4b:a7:f6:98</t>
-  </si>
-  <si>
-    <t>0f:ed:8f:0f:94:88</t>
-  </si>
-  <si>
-    <t>f2:d9:f8:92:f6:fb</t>
-  </si>
-  <si>
-    <t>76:24:19:e2:8e:30</t>
-  </si>
-  <si>
-    <t>d1:2c:d9:ba:5f:fe</t>
-  </si>
-  <si>
-    <t>7d:8b:8c:f7:26:bb</t>
-  </si>
-  <si>
-    <t>c7:03:1e:07:09:43</t>
-  </si>
-  <si>
-    <t>2d:42:6a:88:dd:d3</t>
-  </si>
-  <si>
-    <t>51:d0:3d:0c:c8:9a</t>
-  </si>
-  <si>
-    <t>15:0e:16:dc:5d:ef</t>
-  </si>
-  <si>
-    <t>a1:14:9d:db:bb:3d</t>
-  </si>
-  <si>
-    <t>11:12:fc:9b:04:32</t>
-  </si>
-  <si>
-    <t>cc:36:6d:22:37:f3</t>
-  </si>
-  <si>
-    <t>b0:64:72:ac:0a:6a</t>
-  </si>
-  <si>
-    <t>97:87:6f:ec:d7:2e</t>
-  </si>
-  <si>
-    <t>11:04:c3:f8:d8:9a</t>
-  </si>
-  <si>
-    <t>47:b4:b3:4d:bb:45</t>
-  </si>
-  <si>
-    <t>e6:cc:ed:f7:13:aa</t>
-  </si>
-  <si>
-    <t>ce:18:a0:46:c1:cd</t>
-  </si>
-  <si>
-    <t>e2:97:2c:0d:4b:94</t>
-  </si>
-  <si>
-    <t>8d:9e:fe:f1:6f:5c</t>
-  </si>
-  <si>
-    <t>1e:3d:c6:b4:1d:ac</t>
-  </si>
-  <si>
-    <t>77:de:3a:37:f4:32</t>
-  </si>
-  <si>
-    <t>a4:cf:07:60:f5:fc</t>
-  </si>
-  <si>
-    <t>68:cc:e0:08:41:17</t>
-  </si>
-  <si>
-    <t>79:2f:a1:5b:dc:ec</t>
-  </si>
-  <si>
-    <t>61:af:dd:71:76:13</t>
-  </si>
-  <si>
-    <t>08:8f:d4:67:4e:8c</t>
-  </si>
-  <si>
-    <t>aa:7d:ae:1c:95:ef</t>
-  </si>
-  <si>
-    <t>cb:35:36:de:9d:34</t>
-  </si>
-  <si>
-    <t>83:1b:1b:74:80:e6</t>
-  </si>
-  <si>
-    <t>04:fb:9c:f4:20:16</t>
-  </si>
-  <si>
-    <t>8c:47:48:94:f8:f8</t>
-  </si>
-  <si>
-    <t>3a:66:80:df:85:bb</t>
-  </si>
-  <si>
-    <t>1a:bb:e3:3c:99:e4</t>
-  </si>
-  <si>
-    <t>cf:a6:88:9e:27:05</t>
-  </si>
-  <si>
-    <t>d7:1c:ea:96:5b:38</t>
-  </si>
-  <si>
-    <t>4e:f1:04:0f:ab:8b</t>
-  </si>
-  <si>
-    <t>2c:7f:26:a8:4f:82</t>
-  </si>
-  <si>
-    <t>8c:e1:1a:a5:72:9f</t>
-  </si>
-  <si>
-    <t>a1:73:ee:d2:dc:90</t>
-  </si>
-  <si>
-    <t>95:e6:66:fb:bc:cb</t>
-  </si>
-  <si>
-    <t>91:18:5a:b4:c1:cb</t>
-  </si>
-  <si>
-    <t>fd:68:06:74:5b:1b</t>
-  </si>
-  <si>
-    <t>4c:d6:9c:db:b4:cc</t>
-  </si>
-  <si>
     <t>Finger Print Scanner 1</t>
   </si>
   <si>
@@ -961,12 +662,717 @@
   </si>
   <si>
     <t>eff_dtimes</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 21</t>
+  </si>
+  <si>
+    <t>SZ5912878989</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 22</t>
+  </si>
+  <si>
+    <t>SZ5912878990</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 23</t>
+  </si>
+  <si>
+    <t>SZ5912878991</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 24</t>
+  </si>
+  <si>
+    <t>SZ5912878992</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 25</t>
+  </si>
+  <si>
+    <t>SZ5912878993</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 26</t>
+  </si>
+  <si>
+    <t>SZ5912878994</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 27</t>
+  </si>
+  <si>
+    <t>SZ5912878995</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 28</t>
+  </si>
+  <si>
+    <t>SZ5912878996</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 29</t>
+  </si>
+  <si>
+    <t>SZ5912878997</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 21</t>
+  </si>
+  <si>
+    <t>JN7935692568</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 22</t>
+  </si>
+  <si>
+    <t>JN7935692569</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 23</t>
+  </si>
+  <si>
+    <t>JN7935692570</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 24</t>
+  </si>
+  <si>
+    <t>JN7935692571</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 25</t>
+  </si>
+  <si>
+    <t>JN7935692572</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 26</t>
+  </si>
+  <si>
+    <t>JN7935692573</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 27</t>
+  </si>
+  <si>
+    <t>JN7935692574</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 28</t>
+  </si>
+  <si>
+    <t>JN7935692575</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 29</t>
+  </si>
+  <si>
+    <t>JN7935692576</t>
+  </si>
+  <si>
+    <t>Web Camera 21</t>
+  </si>
+  <si>
+    <t>H483Y8886320689</t>
+  </si>
+  <si>
+    <t>Web Camera 22</t>
+  </si>
+  <si>
+    <t>H483Y8886330690</t>
+  </si>
+  <si>
+    <t>Web Camera 23</t>
+  </si>
+  <si>
+    <t>H483Y8886340691</t>
+  </si>
+  <si>
+    <t>Web Camera 24</t>
+  </si>
+  <si>
+    <t>H483Y8886350692</t>
+  </si>
+  <si>
+    <t>Web Camera 25</t>
+  </si>
+  <si>
+    <t>H483Y8886360693</t>
+  </si>
+  <si>
+    <t>Web Camera 26</t>
+  </si>
+  <si>
+    <t>H483Y8886370694</t>
+  </si>
+  <si>
+    <t>Web Camera 27</t>
+  </si>
+  <si>
+    <t>H483Y8886380695</t>
+  </si>
+  <si>
+    <t>Web Camera 28</t>
+  </si>
+  <si>
+    <t>H483Y8886390696</t>
+  </si>
+  <si>
+    <t>Web Camera 29</t>
+  </si>
+  <si>
+    <t>H483Y8886390697</t>
+  </si>
+  <si>
+    <t>Document Scanner 21</t>
+  </si>
+  <si>
+    <t>YZ492N3059199</t>
+  </si>
+  <si>
+    <t>Document Scanner 22</t>
+  </si>
+  <si>
+    <t>YZ492N3059190</t>
+  </si>
+  <si>
+    <t>Document Scanner 23</t>
+  </si>
+  <si>
+    <t>YZ492N3059191</t>
+  </si>
+  <si>
+    <t>Document Scanner 24</t>
+  </si>
+  <si>
+    <t>YZ492N3059192</t>
+  </si>
+  <si>
+    <t>Document Scanner 25</t>
+  </si>
+  <si>
+    <t>YZ492N3059193</t>
+  </si>
+  <si>
+    <t>Document Scanner 26</t>
+  </si>
+  <si>
+    <t>YZ492N3059194</t>
+  </si>
+  <si>
+    <t>Document Scanner 27</t>
+  </si>
+  <si>
+    <t>YZ492N3059195</t>
+  </si>
+  <si>
+    <t>Document Scanner 28</t>
+  </si>
+  <si>
+    <t>YZ492N3059196</t>
+  </si>
+  <si>
+    <t>Document Scanner 29</t>
+  </si>
+  <si>
+    <t>YZ492N3059197</t>
+  </si>
+  <si>
+    <t>Printer 21</t>
+  </si>
+  <si>
+    <t>BS563Q2230805</t>
+  </si>
+  <si>
+    <t>Printer 22</t>
+  </si>
+  <si>
+    <t>BS563Q2230806</t>
+  </si>
+  <si>
+    <t>Printer 23</t>
+  </si>
+  <si>
+    <t>BS563Q2230807</t>
+  </si>
+  <si>
+    <t>Printer 24</t>
+  </si>
+  <si>
+    <t>BS563Q2230808</t>
+  </si>
+  <si>
+    <t>Printer 25</t>
+  </si>
+  <si>
+    <t>BS563Q2230809</t>
+  </si>
+  <si>
+    <t>Printer 26</t>
+  </si>
+  <si>
+    <t>BS563Q2230810</t>
+  </si>
+  <si>
+    <t>Printer 27</t>
+  </si>
+  <si>
+    <t>BS563Q2230811</t>
+  </si>
+  <si>
+    <t>Printer 28</t>
+  </si>
+  <si>
+    <t>BS563Q2230812</t>
+  </si>
+  <si>
+    <t>Printer 29</t>
+  </si>
+  <si>
+    <t>BS563Q2230813</t>
+  </si>
+  <si>
+    <t>85-BB-97-4B-14-05</t>
+  </si>
+  <si>
+    <t>CD-27-9D-D6-F4-7B</t>
+  </si>
+  <si>
+    <t>6B-D5-10-4B-3A-9E</t>
+  </si>
+  <si>
+    <t>05-0C-BB-36-3D-AA</t>
+  </si>
+  <si>
+    <t>BC-34-3E-E4-40-0D</t>
+  </si>
+  <si>
+    <t>8C-AE-12-9B-53-45</t>
+  </si>
+  <si>
+    <t>D4-98-44-DD-AA-F1</t>
+  </si>
+  <si>
+    <t>F2-26-5C-A9-88-63</t>
+  </si>
+  <si>
+    <t>2B-B1-C9-70-9D-DA</t>
+  </si>
+  <si>
+    <t>94-E0-20-B1-C1-11</t>
+  </si>
+  <si>
+    <t>D7-88-E6-E4-9B-33</t>
+  </si>
+  <si>
+    <t>A7-64-1C-BF-97-C2</t>
+  </si>
+  <si>
+    <t>26-52-CA-B8-4B-CA</t>
+  </si>
+  <si>
+    <t>D6-0B-0F-FC-D0-B8</t>
+  </si>
+  <si>
+    <t>DE-34-78-77-7E-ED</t>
+  </si>
+  <si>
+    <t>DC-E5-9C-A8-84-AB</t>
+  </si>
+  <si>
+    <t>DC-66-E1-05-EF-66</t>
+  </si>
+  <si>
+    <t>2D-F1-90-89-64-AC</t>
+  </si>
+  <si>
+    <t>91-16-2F-35-1F-9F</t>
+  </si>
+  <si>
+    <t>CB-B1-03-83-80-1D</t>
+  </si>
+  <si>
+    <t>11-FB-CF-6A-BF-29</t>
+  </si>
+  <si>
+    <t>6D-A3-60-2E-B8-2F</t>
+  </si>
+  <si>
+    <t>08-4B-68-23-1A-E6</t>
+  </si>
+  <si>
+    <t>DE-BE-02-60-64-4D</t>
+  </si>
+  <si>
+    <t>BC-B8-7F-F8-2F-30</t>
+  </si>
+  <si>
+    <t>52-D5-92-5A-27-04</t>
+  </si>
+  <si>
+    <t>BB-DC-5F-96-F3-27</t>
+  </si>
+  <si>
+    <t>77-A4-F0-6A-C6-53</t>
+  </si>
+  <si>
+    <t>85-90-5D-B6-99-BC</t>
+  </si>
+  <si>
+    <t>D0-18-F8-41-82-E9</t>
+  </si>
+  <si>
+    <t>A1-67-FA-CB-41-6E</t>
+  </si>
+  <si>
+    <t>F1-5B-C5-0D-9F-BE</t>
+  </si>
+  <si>
+    <t>95-79-72-7A-5B-6E</t>
+  </si>
+  <si>
+    <t>3C-C6-D3-F1-53-3C</t>
+  </si>
+  <si>
+    <t>55-67-1D-45-37-70</t>
+  </si>
+  <si>
+    <t>12-34-54-1F-8B-27</t>
+  </si>
+  <si>
+    <t>D6-F9-DE-3C-BE-96</t>
+  </si>
+  <si>
+    <t>AA-D8-DC-3A-0A-A8</t>
+  </si>
+  <si>
+    <t>0D-1B-B0-5A-D9-98</t>
+  </si>
+  <si>
+    <t>FA-60-AC-D0-54-1C</t>
+  </si>
+  <si>
+    <t>B3-62-78-07-D4-D1</t>
+  </si>
+  <si>
+    <t>F8-69-DF-BD-EB-C9</t>
+  </si>
+  <si>
+    <t>1C-4E-80-B6-91-B3</t>
+  </si>
+  <si>
+    <t>66-2B-AA-8E-9C-1F</t>
+  </si>
+  <si>
+    <t>6C-23-A2-93-6A-0B</t>
+  </si>
+  <si>
+    <t>CA-C8-B9-70-86-7C</t>
+  </si>
+  <si>
+    <t>ED-E0-CF-F5-84-20</t>
+  </si>
+  <si>
+    <t>44-76-FB-84-B7-5E</t>
+  </si>
+  <si>
+    <t>EB-90-BA-9D-14-57</t>
+  </si>
+  <si>
+    <t>F1-C5-13-C3-34-9F</t>
+  </si>
+  <si>
+    <t>C5-DE-A4-58-43-39</t>
+  </si>
+  <si>
+    <t>F1-D5-0B-6B-E4-B4</t>
+  </si>
+  <si>
+    <t>46-BA-9D-E8-60-C0</t>
+  </si>
+  <si>
+    <t>14-69-34-B7-21-BB</t>
+  </si>
+  <si>
+    <t>BA-DE-90-AF-C4-6E</t>
+  </si>
+  <si>
+    <t>8D-28-4B-A7-F6-98</t>
+  </si>
+  <si>
+    <t>0F-ED-8F-0F-94-88</t>
+  </si>
+  <si>
+    <t>F2-D9-F8-92-F6-FB</t>
+  </si>
+  <si>
+    <t>76-24-19-E2-8E-30</t>
+  </si>
+  <si>
+    <t>D1-2C-D9-BA-5F-FE</t>
+  </si>
+  <si>
+    <t>7D-8B-8C-F7-26-BB</t>
+  </si>
+  <si>
+    <t>C7-03-1E-07-09-43</t>
+  </si>
+  <si>
+    <t>2D-42-6A-88-DD-D3</t>
+  </si>
+  <si>
+    <t>51-D0-3D-0C-C8-9A</t>
+  </si>
+  <si>
+    <t>15-0E-16-DC-5D-EF</t>
+  </si>
+  <si>
+    <t>A1-14-9D-DB-BB-3D</t>
+  </si>
+  <si>
+    <t>11-12-FC-9B-04-32</t>
+  </si>
+  <si>
+    <t>CC-36-6D-22-37-F3</t>
+  </si>
+  <si>
+    <t>B0-64-72-AC-0A-6A</t>
+  </si>
+  <si>
+    <t>97-87-6F-EC-D7-2E</t>
+  </si>
+  <si>
+    <t>11-04-C3-F8-D8-9A</t>
+  </si>
+  <si>
+    <t>47-B4-B3-4D-BB-45</t>
+  </si>
+  <si>
+    <t>E6-CC-ED-F7-13-AA</t>
+  </si>
+  <si>
+    <t>CE-18-A0-46-C1-CD</t>
+  </si>
+  <si>
+    <t>E2-97-2C-0D-4B-94</t>
+  </si>
+  <si>
+    <t>8D-9E-FE-F1-6F-5C</t>
+  </si>
+  <si>
+    <t>1E-3D-C6-B4-1D-AC</t>
+  </si>
+  <si>
+    <t>77-DE-3A-37-F4-32</t>
+  </si>
+  <si>
+    <t>A4-CF-07-60-F5-FC</t>
+  </si>
+  <si>
+    <t>68-CC-E0-08-41-17</t>
+  </si>
+  <si>
+    <t>79-2F-A1-5B-DC-EC</t>
+  </si>
+  <si>
+    <t>61-AF-DD-71-76-13</t>
+  </si>
+  <si>
+    <t>08-8F-D4-67-4E-8C</t>
+  </si>
+  <si>
+    <t>AA-7D-AE-1C-95-EF</t>
+  </si>
+  <si>
+    <t>CB-35-36-DE-9D-34</t>
+  </si>
+  <si>
+    <t>83-1B-1B-74-80-E6</t>
+  </si>
+  <si>
+    <t>04-FB-9C-F4-20-16</t>
+  </si>
+  <si>
+    <t>8C-47-48-94-F8-F8</t>
+  </si>
+  <si>
+    <t>3A-66-80-DF-85-BB</t>
+  </si>
+  <si>
+    <t>1A-BB-E3-3C-99-E4</t>
+  </si>
+  <si>
+    <t>CF-A6-88-9E-27-05</t>
+  </si>
+  <si>
+    <t>D7-1C-EA-96-5B-38</t>
+  </si>
+  <si>
+    <t>4E-F1-04-0F-AB-8B</t>
+  </si>
+  <si>
+    <t>2C-7F-26-A8-4F-82</t>
+  </si>
+  <si>
+    <t>8C-E1-1A-A5-72-9F</t>
+  </si>
+  <si>
+    <t>A1-73-EE-D2-DC-90</t>
+  </si>
+  <si>
+    <t>95-E6-66-FB-BC-CB</t>
+  </si>
+  <si>
+    <t>91-18-5A-B4-C1-CB</t>
+  </si>
+  <si>
+    <t>FD-68-06-74-5B-1B</t>
+  </si>
+  <si>
+    <t>4C-D6-9C-DB-B4-CC</t>
+  </si>
+  <si>
+    <t>7F-91-FB-EC-02-B2</t>
+  </si>
+  <si>
+    <t>7F-E0-CC-F9-4D-FC</t>
+  </si>
+  <si>
+    <t>43-85-ED-59-95-AD</t>
+  </si>
+  <si>
+    <t>3B-5D-36-FE-2D-09</t>
+  </si>
+  <si>
+    <t>7A-E6-6B-3A-30-C4</t>
+  </si>
+  <si>
+    <t>BC-59-89-1F-57-1A</t>
+  </si>
+  <si>
+    <t>68-68-A7-82-76-CC</t>
+  </si>
+  <si>
+    <t>61-5E-47-8C-7B-C2</t>
+  </si>
+  <si>
+    <t>22-7B-09-19-D7-C7</t>
+  </si>
+  <si>
+    <t>E9-B9-77-10-69-57</t>
+  </si>
+  <si>
+    <t>EC-90-5E-C5-76-84</t>
+  </si>
+  <si>
+    <t>40-79-3B-A5-6F-12</t>
+  </si>
+  <si>
+    <t>BF-02-DD-BF-72-F1</t>
+  </si>
+  <si>
+    <t>7B-7C-F4-68-E9-98</t>
+  </si>
+  <si>
+    <t>22-21-BB-C3-05-59</t>
+  </si>
+  <si>
+    <t>BD-1F-E1-C4-52-AA</t>
+  </si>
+  <si>
+    <t>F5-F8-6E-16-39-82</t>
+  </si>
+  <si>
+    <t>78-CC-3D-6D-FD-1D</t>
+  </si>
+  <si>
+    <t>73-4D-AF-D8-54-59</t>
+  </si>
+  <si>
+    <t>47-E7-76-10-5E-7B</t>
+  </si>
+  <si>
+    <t>B7-F0-0C-30-70-E7</t>
+  </si>
+  <si>
+    <t>3D-CF-71-BC-6B-CE</t>
+  </si>
+  <si>
+    <t>F3-E0-54-EF-38-55</t>
+  </si>
+  <si>
+    <t>14-A5-CC-0D-6D-3E</t>
+  </si>
+  <si>
+    <t>99-1B-4A-C8-40-CE</t>
+  </si>
+  <si>
+    <t>FD-E1-A6-F5-7B-22</t>
+  </si>
+  <si>
+    <t>56-5D-97-76-13-D4</t>
+  </si>
+  <si>
+    <t>00-7E-9C-5F-D4-6B</t>
+  </si>
+  <si>
+    <t>68-FA-50-36-8F-4F</t>
+  </si>
+  <si>
+    <t>8A-56-30-38-F3-6B</t>
+  </si>
+  <si>
+    <t>D8-DE-E5-0B-0E-FB</t>
+  </si>
+  <si>
+    <t>06-54-57-AA-D8-27</t>
+  </si>
+  <si>
+    <t>55-11-25-DC-AD-A3</t>
+  </si>
+  <si>
+    <t>50-3C-0A-00-48-96</t>
+  </si>
+  <si>
+    <t>5E-24-40-CF-F2-A3</t>
+  </si>
+  <si>
+    <t>FC-47-29-B5-89-F0</t>
+  </si>
+  <si>
+    <t>23-CE-71-BA-BA-1D</t>
+  </si>
+  <si>
+    <t>13-58-64-3B-93-81</t>
+  </si>
+  <si>
+    <t>8A-B5-F1-CB-D1-F0</t>
+  </si>
+  <si>
+    <t>E5-49-B2-0D-06-B5</t>
+  </si>
+  <si>
+    <t>F9-42-11-AC-26-97</t>
+  </si>
+  <si>
+    <t>9C-C9-7F-A3-3F-DD</t>
+  </si>
+  <si>
+    <t>CD-E5-93-66-5D-1E</t>
+  </si>
+  <si>
+    <t>CA-BE-9C-DD-6A-7A</t>
+  </si>
+  <si>
+    <t>57-8C-B6-27-5B-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,17 +1686,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -1298,17 +1704,6 @@
     <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1343,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1351,31 +1746,31 @@
         <v>3000021</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
       </c>
       <c r="F2">
         <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1383,31 +1778,31 @@
         <v>3000022</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1415,31 +1810,31 @@
         <v>3000023</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1447,31 +1842,31 @@
         <v>3000024</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
       </c>
       <c r="F5">
         <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1479,31 +1874,31 @@
         <v>3000025</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
       </c>
       <c r="F6">
         <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J6" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1511,31 +1906,31 @@
         <v>3000026</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
       </c>
       <c r="F7">
         <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1543,31 +1938,31 @@
         <v>3000027</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
       </c>
       <c r="F8">
         <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1575,31 +1970,31 @@
         <v>3000028</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
       </c>
       <c r="F9">
         <v>165</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1607,31 +2002,31 @@
         <v>3000029</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
       </c>
       <c r="F10">
         <v>165</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K10" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1639,31 +2034,31 @@
         <v>3000030</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>219</v>
       </c>
       <c r="F11">
         <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J11" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K11" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1671,31 +2066,31 @@
         <v>3000031</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>220</v>
       </c>
       <c r="F12">
         <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J12" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K12" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1703,31 +2098,31 @@
         <v>3000032</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
         <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
       </c>
       <c r="F13">
         <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J13" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1735,31 +2130,31 @@
         <v>3000033</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
       </c>
       <c r="F14">
         <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K14" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1767,31 +2162,31 @@
         <v>3000034</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>223</v>
       </c>
       <c r="F15">
         <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K15" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1799,31 +2194,31 @@
         <v>3000035</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
         <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
       </c>
       <c r="F16">
         <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K16" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1831,31 +2226,31 @@
         <v>3000036</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>225</v>
       </c>
       <c r="F17">
         <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1863,31 +2258,31 @@
         <v>3000037</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
         <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>226</v>
       </c>
       <c r="F18">
         <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K18" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1895,31 +2290,31 @@
         <v>3000038</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" t="s">
         <v>127</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>227</v>
       </c>
       <c r="F19">
         <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1927,31 +2322,31 @@
         <v>3000039</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>228</v>
       </c>
       <c r="F20">
         <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1959,31 +2354,31 @@
         <v>3000040</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
         <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>229</v>
       </c>
       <c r="F21">
         <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1991,31 +2386,31 @@
         <v>3000041</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" t="s">
         <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>230</v>
       </c>
       <c r="F22">
         <v>327</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2023,31 +2418,31 @@
         <v>3000042</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="F23">
         <v>327</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -2055,31 +2450,31 @@
         <v>3000043</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="F24">
         <v>327</v>
       </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2087,31 +2482,31 @@
         <v>3000044</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="F25">
         <v>327</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2119,31 +2514,31 @@
         <v>3000045</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="F26">
         <v>327</v>
       </c>
       <c r="G26" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2151,31 +2546,31 @@
         <v>3000046</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>327</v>
       </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2183,31 +2578,31 @@
         <v>3000047</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="F28">
         <v>327</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2215,31 +2610,31 @@
         <v>3000048</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F29">
         <v>327</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2247,31 +2642,31 @@
         <v>3000049</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>327</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2279,31 +2674,31 @@
         <v>3000050</v>
       </c>
       <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" t="s">
         <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>239</v>
       </c>
       <c r="F31">
         <v>327</v>
       </c>
       <c r="G31" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2311,31 +2706,31 @@
         <v>3000051</v>
       </c>
       <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" t="s">
         <v>140</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>240</v>
       </c>
       <c r="F32">
         <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2343,31 +2738,31 @@
         <v>3000052</v>
       </c>
       <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
         <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>241</v>
       </c>
       <c r="F33">
         <v>327</v>
       </c>
       <c r="G33" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2375,31 +2770,31 @@
         <v>3000053</v>
       </c>
       <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" t="s">
         <v>142</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>242</v>
       </c>
       <c r="F34">
         <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2407,31 +2802,31 @@
         <v>3000054</v>
       </c>
       <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" t="s">
         <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>243</v>
       </c>
       <c r="F35">
         <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2439,31 +2834,31 @@
         <v>3000055</v>
       </c>
       <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>244</v>
       </c>
       <c r="F36">
         <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2471,31 +2866,31 @@
         <v>3000056</v>
       </c>
       <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>245</v>
       </c>
       <c r="F37">
         <v>327</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2503,31 +2898,31 @@
         <v>3000057</v>
       </c>
       <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>246</v>
       </c>
       <c r="F38">
         <v>327</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2535,31 +2930,31 @@
         <v>3000058</v>
       </c>
       <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" t="s">
         <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>247</v>
       </c>
       <c r="F39">
         <v>327</v>
       </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2567,31 +2962,31 @@
         <v>3000059</v>
       </c>
       <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" t="s">
         <v>148</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" t="s">
-        <v>248</v>
       </c>
       <c r="F40">
         <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2599,31 +2994,31 @@
         <v>3000060</v>
       </c>
       <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" t="s">
         <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>249</v>
       </c>
       <c r="F41">
         <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2631,31 +3026,31 @@
         <v>3000061</v>
       </c>
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" t="s">
         <v>150</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>250</v>
       </c>
       <c r="F42">
         <v>736</v>
       </c>
       <c r="G42" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2663,31 +3058,31 @@
         <v>3000062</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F43">
         <v>736</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J43" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2695,31 +3090,31 @@
         <v>3000063</v>
       </c>
       <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" t="s">
         <v>152</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>252</v>
       </c>
       <c r="F44">
         <v>736</v>
       </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2727,31 +3122,31 @@
         <v>3000064</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="F45">
         <v>736</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2759,31 +3154,31 @@
         <v>3000065</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="F46">
         <v>736</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K46" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2791,31 +3186,31 @@
         <v>3000066</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="F47">
         <v>736</v>
       </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2823,31 +3218,31 @@
         <v>3000067</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="F48">
         <v>736</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K48" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2855,31 +3250,31 @@
         <v>3000068</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="F49">
         <v>736</v>
       </c>
       <c r="G49" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J49" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2887,31 +3282,31 @@
         <v>3000069</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="F50">
         <v>736</v>
       </c>
       <c r="G50" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J50" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K50" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2919,31 +3314,31 @@
         <v>3000070</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>736</v>
       </c>
       <c r="G51" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J51" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K51" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2951,31 +3346,31 @@
         <v>3000071</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="F52">
         <v>736</v>
       </c>
       <c r="G52" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J52" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2983,31 +3378,31 @@
         <v>3000072</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="F53">
         <v>736</v>
       </c>
       <c r="G53" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J53" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -3015,31 +3410,31 @@
         <v>3000073</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>736</v>
       </c>
       <c r="G54" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J54" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K54" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3047,31 +3442,31 @@
         <v>3000074</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="F55">
         <v>736</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J55" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K55" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -3079,31 +3474,31 @@
         <v>3000075</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="F56">
         <v>736</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J56" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K56" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -3111,31 +3506,31 @@
         <v>3000076</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>359</v>
       </c>
       <c r="D57" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="F57">
         <v>736</v>
       </c>
       <c r="G57" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J57" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K57" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3143,31 +3538,31 @@
         <v>3000077</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="F58">
         <v>736</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K58" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3175,31 +3570,31 @@
         <v>3000078</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="F59">
         <v>736</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J59" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K59" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -3207,31 +3602,31 @@
         <v>3000079</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>362</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="F60">
         <v>736</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J60" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K60" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3239,31 +3634,31 @@
         <v>3000080</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="F61">
         <v>736</v>
       </c>
       <c r="G61" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J61" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K61" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3271,31 +3666,31 @@
         <v>3000081</v>
       </c>
       <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" t="s">
         <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" t="s">
-        <v>270</v>
       </c>
       <c r="F62">
         <v>801</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J62" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K62" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3303,31 +3698,31 @@
         <v>3000082</v>
       </c>
       <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" t="s">
         <v>171</v>
-      </c>
-      <c r="C63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" t="s">
-        <v>271</v>
       </c>
       <c r="F63">
         <v>801</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J63" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K63" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3335,31 +3730,31 @@
         <v>3000083</v>
       </c>
       <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" t="s">
-        <v>272</v>
       </c>
       <c r="F64">
         <v>801</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J64" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K64" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3367,31 +3762,31 @@
         <v>3000084</v>
       </c>
       <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>367</v>
+      </c>
+      <c r="D65" t="s">
         <v>173</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" t="s">
-        <v>273</v>
       </c>
       <c r="F65">
         <v>801</v>
       </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J65" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K65" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3399,31 +3794,31 @@
         <v>3000085</v>
       </c>
       <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" t="s">
-        <v>274</v>
       </c>
       <c r="F66">
         <v>801</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J66" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3431,31 +3826,31 @@
         <v>3000086</v>
       </c>
       <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" t="s">
         <v>175</v>
-      </c>
-      <c r="C67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" t="s">
-        <v>275</v>
       </c>
       <c r="F67">
         <v>801</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J67" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K67" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3463,31 +3858,31 @@
         <v>3000087</v>
       </c>
       <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D68" t="s">
         <v>176</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" t="s">
-        <v>276</v>
       </c>
       <c r="F68">
         <v>801</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J68" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K68" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -3495,31 +3890,31 @@
         <v>3000088</v>
       </c>
       <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" t="s">
         <v>177</v>
-      </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" t="s">
-        <v>277</v>
       </c>
       <c r="F69">
         <v>801</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J69" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K69" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -3527,31 +3922,31 @@
         <v>3000089</v>
       </c>
       <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" t="s">
         <v>178</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
-        <v>278</v>
       </c>
       <c r="F70">
         <v>801</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J70" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3559,31 +3954,31 @@
         <v>3000090</v>
       </c>
       <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" t="s">
         <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>279</v>
       </c>
       <c r="F71">
         <v>801</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J71" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K71" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3591,31 +3986,31 @@
         <v>3000091</v>
       </c>
       <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" t="s">
         <v>180</v>
-      </c>
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" t="s">
-        <v>280</v>
       </c>
       <c r="F72">
         <v>801</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J72" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K72" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3623,31 +4018,31 @@
         <v>3000092</v>
       </c>
       <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" t="s">
-        <v>281</v>
       </c>
       <c r="F73">
         <v>801</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J73" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K73" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3655,31 +4050,31 @@
         <v>3000093</v>
       </c>
       <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" t="s">
         <v>182</v>
-      </c>
-      <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>282</v>
       </c>
       <c r="F74">
         <v>801</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J74" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K74" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3687,31 +4082,31 @@
         <v>3000094</v>
       </c>
       <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" t="s">
         <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>283</v>
       </c>
       <c r="F75">
         <v>801</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J75" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K75" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -3719,31 +4114,31 @@
         <v>3000095</v>
       </c>
       <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" t="s">
         <v>184</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>284</v>
       </c>
       <c r="F76">
         <v>801</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3751,31 +4146,31 @@
         <v>3000096</v>
       </c>
       <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" t="s">
         <v>185</v>
-      </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>285</v>
       </c>
       <c r="F77">
         <v>801</v>
       </c>
       <c r="G77" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J77" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K77" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3783,31 +4178,31 @@
         <v>3000097</v>
       </c>
       <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" t="s">
         <v>186</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>286</v>
       </c>
       <c r="F78">
         <v>801</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J78" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K78" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3815,31 +4210,31 @@
         <v>3000098</v>
       </c>
       <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" t="s">
         <v>187</v>
-      </c>
-      <c r="C79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" t="s">
-        <v>287</v>
       </c>
       <c r="F79">
         <v>801</v>
       </c>
       <c r="G79" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J79" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K79" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3847,31 +4242,31 @@
         <v>3000099</v>
       </c>
       <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" t="s">
         <v>188</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>288</v>
       </c>
       <c r="F80">
         <v>801</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J80" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K80" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3879,31 +4274,31 @@
         <v>3000100</v>
       </c>
       <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" t="s">
         <v>189</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" t="s">
-        <v>289</v>
       </c>
       <c r="F81">
         <v>801</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J81" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K81" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3911,31 +4306,31 @@
         <v>3000101</v>
       </c>
       <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" t="s">
         <v>190</v>
-      </c>
-      <c r="C82" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" t="s">
-        <v>290</v>
       </c>
       <c r="F82">
         <v>920</v>
       </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J82" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K82" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3943,31 +4338,31 @@
         <v>3000102</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="F83">
         <v>920</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J83" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K83" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -3975,31 +4370,31 @@
         <v>3000103</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="F84">
         <v>920</v>
       </c>
       <c r="G84" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J84" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K84" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -4007,31 +4402,31 @@
         <v>3000104</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="F85">
         <v>920</v>
       </c>
       <c r="G85" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J85" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K85" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -4039,31 +4434,31 @@
         <v>3000105</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>388</v>
       </c>
       <c r="D86" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="F86">
         <v>920</v>
       </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J86" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K86" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -4071,31 +4466,31 @@
         <v>3000106</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="F87">
         <v>920</v>
       </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J87" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K87" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4103,31 +4498,31 @@
         <v>3000107</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="F88">
         <v>920</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J88" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K88" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4135,31 +4530,31 @@
         <v>3000108</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="F89">
         <v>920</v>
       </c>
       <c r="G89" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J89" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K89" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4167,31 +4562,31 @@
         <v>3000109</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="F90">
         <v>920</v>
       </c>
       <c r="G90" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J90" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K90" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -4199,31 +4594,31 @@
         <v>3000110</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="F91">
         <v>920</v>
       </c>
       <c r="G91" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J91" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K91" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -4231,31 +4626,31 @@
         <v>3000111</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F92">
         <v>920</v>
       </c>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J92" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K92" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4263,31 +4658,31 @@
         <v>3000112</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="F93">
         <v>920</v>
       </c>
       <c r="G93" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J93" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K93" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -4295,31 +4690,31 @@
         <v>3000113</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="D94" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="F94">
         <v>920</v>
       </c>
       <c r="G94" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J94" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K94" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -4327,31 +4722,31 @@
         <v>3000114</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="F95">
         <v>920</v>
       </c>
       <c r="G95" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J95" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K95" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4359,31 +4754,31 @@
         <v>3000115</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="F96">
         <v>920</v>
       </c>
       <c r="G96" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J96" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K96" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4391,31 +4786,31 @@
         <v>3000116</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="F97">
         <v>920</v>
       </c>
       <c r="G97" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J97" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -4423,31 +4818,31 @@
         <v>3000117</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="F98">
         <v>920</v>
       </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J98" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K98" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -4455,31 +4850,31 @@
         <v>3000118</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="F99">
         <v>920</v>
       </c>
       <c r="G99" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H99" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K99" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -4487,31 +4882,31 @@
         <v>3000119</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F100">
         <v>920</v>
       </c>
       <c r="G100" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J100" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K100" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -4519,31 +4914,1471 @@
         <v>3000120</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F101">
         <v>920</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J101" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K101" t="s">
-        <v>312</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>3000121</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>210</v>
+      </c>
+      <c r="H102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>211</v>
+      </c>
+      <c r="J102" t="s">
+        <v>212</v>
+      </c>
+      <c r="K102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3000122</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103">
+        <v>165</v>
+      </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>211</v>
+      </c>
+      <c r="J103" t="s">
+        <v>212</v>
+      </c>
+      <c r="K103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3000123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104">
+        <v>165</v>
+      </c>
+      <c r="G104" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>211</v>
+      </c>
+      <c r="J104" t="s">
+        <v>212</v>
+      </c>
+      <c r="K104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>3000124</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105">
+        <v>165</v>
+      </c>
+      <c r="G105" t="s">
+        <v>210</v>
+      </c>
+      <c r="H105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>211</v>
+      </c>
+      <c r="J105" t="s">
+        <v>212</v>
+      </c>
+      <c r="K105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3000125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106">
+        <v>165</v>
+      </c>
+      <c r="G106" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>211</v>
+      </c>
+      <c r="J106" t="s">
+        <v>212</v>
+      </c>
+      <c r="K106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3000126</v>
+      </c>
+      <c r="B107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107">
+        <v>165</v>
+      </c>
+      <c r="G107" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>211</v>
+      </c>
+      <c r="J107" t="s">
+        <v>212</v>
+      </c>
+      <c r="K107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3000127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" t="s">
+        <v>227</v>
+      </c>
+      <c r="F108">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>211</v>
+      </c>
+      <c r="J108" t="s">
+        <v>212</v>
+      </c>
+      <c r="K108" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>3000128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="s">
+        <v>411</v>
+      </c>
+      <c r="D109" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109">
+        <v>165</v>
+      </c>
+      <c r="G109" t="s">
+        <v>210</v>
+      </c>
+      <c r="H109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>211</v>
+      </c>
+      <c r="J109" t="s">
+        <v>212</v>
+      </c>
+      <c r="K109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>3000129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="F110">
+        <v>165</v>
+      </c>
+      <c r="G110" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>211</v>
+      </c>
+      <c r="J110" t="s">
+        <v>212</v>
+      </c>
+      <c r="K110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>3000130</v>
+      </c>
+      <c r="B111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111">
+        <v>327</v>
+      </c>
+      <c r="G111" t="s">
+        <v>210</v>
+      </c>
+      <c r="H111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>211</v>
+      </c>
+      <c r="J111" t="s">
+        <v>212</v>
+      </c>
+      <c r="K111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>3000131</v>
+      </c>
+      <c r="B112" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" t="s">
+        <v>414</v>
+      </c>
+      <c r="D112" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112">
+        <v>327</v>
+      </c>
+      <c r="G112" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>211</v>
+      </c>
+      <c r="J112" t="s">
+        <v>212</v>
+      </c>
+      <c r="K112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>3000132</v>
+      </c>
+      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="F113">
+        <v>327</v>
+      </c>
+      <c r="G113" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>211</v>
+      </c>
+      <c r="J113" t="s">
+        <v>212</v>
+      </c>
+      <c r="K113" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>3000133</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" t="s">
+        <v>416</v>
+      </c>
+      <c r="D114" t="s">
+        <v>239</v>
+      </c>
+      <c r="F114">
+        <v>327</v>
+      </c>
+      <c r="G114" t="s">
+        <v>210</v>
+      </c>
+      <c r="H114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>211</v>
+      </c>
+      <c r="J114" t="s">
+        <v>212</v>
+      </c>
+      <c r="K114" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>3000134</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" t="s">
+        <v>417</v>
+      </c>
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F115">
+        <v>327</v>
+      </c>
+      <c r="G115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>211</v>
+      </c>
+      <c r="J115" t="s">
+        <v>212</v>
+      </c>
+      <c r="K115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>3000135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>418</v>
+      </c>
+      <c r="D116" t="s">
+        <v>243</v>
+      </c>
+      <c r="F116">
+        <v>327</v>
+      </c>
+      <c r="G116" t="s">
+        <v>210</v>
+      </c>
+      <c r="H116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>211</v>
+      </c>
+      <c r="J116" t="s">
+        <v>212</v>
+      </c>
+      <c r="K116" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>3000136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" t="s">
+        <v>245</v>
+      </c>
+      <c r="F117">
+        <v>327</v>
+      </c>
+      <c r="G117" t="s">
+        <v>210</v>
+      </c>
+      <c r="H117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>211</v>
+      </c>
+      <c r="J117" t="s">
+        <v>212</v>
+      </c>
+      <c r="K117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>3000137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" t="s">
+        <v>247</v>
+      </c>
+      <c r="F118">
+        <v>327</v>
+      </c>
+      <c r="G118" t="s">
+        <v>210</v>
+      </c>
+      <c r="H118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>211</v>
+      </c>
+      <c r="J118" t="s">
+        <v>212</v>
+      </c>
+      <c r="K118" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>3000138</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119">
+        <v>327</v>
+      </c>
+      <c r="G119" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>211</v>
+      </c>
+      <c r="J119" t="s">
+        <v>212</v>
+      </c>
+      <c r="K119" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>3000139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
+      </c>
+      <c r="F120">
+        <v>736</v>
+      </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>211</v>
+      </c>
+      <c r="J120" t="s">
+        <v>212</v>
+      </c>
+      <c r="K120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3000140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121">
+        <v>736</v>
+      </c>
+      <c r="G121" t="s">
+        <v>210</v>
+      </c>
+      <c r="H121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>211</v>
+      </c>
+      <c r="J121" t="s">
+        <v>212</v>
+      </c>
+      <c r="K121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>3000141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" t="s">
+        <v>424</v>
+      </c>
+      <c r="D122" t="s">
+        <v>255</v>
+      </c>
+      <c r="F122">
+        <v>736</v>
+      </c>
+      <c r="G122" t="s">
+        <v>210</v>
+      </c>
+      <c r="H122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>211</v>
+      </c>
+      <c r="J122" t="s">
+        <v>212</v>
+      </c>
+      <c r="K122" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>3000142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>425</v>
+      </c>
+      <c r="D123" t="s">
+        <v>257</v>
+      </c>
+      <c r="F123">
+        <v>736</v>
+      </c>
+      <c r="G123" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>211</v>
+      </c>
+      <c r="J123" t="s">
+        <v>212</v>
+      </c>
+      <c r="K123" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>3000143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>426</v>
+      </c>
+      <c r="D124" t="s">
+        <v>259</v>
+      </c>
+      <c r="F124">
+        <v>736</v>
+      </c>
+      <c r="G124" t="s">
+        <v>210</v>
+      </c>
+      <c r="H124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>211</v>
+      </c>
+      <c r="J124" t="s">
+        <v>212</v>
+      </c>
+      <c r="K124" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>3000144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
+        <v>427</v>
+      </c>
+      <c r="D125" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125">
+        <v>736</v>
+      </c>
+      <c r="G125" t="s">
+        <v>210</v>
+      </c>
+      <c r="H125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>211</v>
+      </c>
+      <c r="J125" t="s">
+        <v>212</v>
+      </c>
+      <c r="K125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>3000145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" t="s">
+        <v>263</v>
+      </c>
+      <c r="F126">
+        <v>736</v>
+      </c>
+      <c r="G126" t="s">
+        <v>210</v>
+      </c>
+      <c r="H126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>211</v>
+      </c>
+      <c r="J126" t="s">
+        <v>212</v>
+      </c>
+      <c r="K126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>3000146</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" t="s">
+        <v>265</v>
+      </c>
+      <c r="F127">
+        <v>736</v>
+      </c>
+      <c r="G127" t="s">
+        <v>210</v>
+      </c>
+      <c r="H127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>211</v>
+      </c>
+      <c r="J127" t="s">
+        <v>212</v>
+      </c>
+      <c r="K127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>3000147</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>430</v>
+      </c>
+      <c r="D128" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128">
+        <v>736</v>
+      </c>
+      <c r="G128" t="s">
+        <v>210</v>
+      </c>
+      <c r="H128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>211</v>
+      </c>
+      <c r="J128" t="s">
+        <v>212</v>
+      </c>
+      <c r="K128" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>3000148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>431</v>
+      </c>
+      <c r="D129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F129">
+        <v>801</v>
+      </c>
+      <c r="G129" t="s">
+        <v>210</v>
+      </c>
+      <c r="H129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>211</v>
+      </c>
+      <c r="J129" t="s">
+        <v>212</v>
+      </c>
+      <c r="K129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>3000149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>432</v>
+      </c>
+      <c r="D130" t="s">
+        <v>271</v>
+      </c>
+      <c r="F130">
+        <v>801</v>
+      </c>
+      <c r="G130" t="s">
+        <v>210</v>
+      </c>
+      <c r="H130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>211</v>
+      </c>
+      <c r="J130" t="s">
+        <v>212</v>
+      </c>
+      <c r="K130" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>3000150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>433</v>
+      </c>
+      <c r="D131" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131">
+        <v>801</v>
+      </c>
+      <c r="G131" t="s">
+        <v>210</v>
+      </c>
+      <c r="H131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>211</v>
+      </c>
+      <c r="J131" t="s">
+        <v>212</v>
+      </c>
+      <c r="K131" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>3000151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" t="s">
+        <v>434</v>
+      </c>
+      <c r="D132" t="s">
+        <v>275</v>
+      </c>
+      <c r="F132">
+        <v>801</v>
+      </c>
+      <c r="G132" t="s">
+        <v>210</v>
+      </c>
+      <c r="H132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>211</v>
+      </c>
+      <c r="J132" t="s">
+        <v>212</v>
+      </c>
+      <c r="K132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>3000152</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>435</v>
+      </c>
+      <c r="D133" t="s">
+        <v>277</v>
+      </c>
+      <c r="F133">
+        <v>801</v>
+      </c>
+      <c r="G133" t="s">
+        <v>210</v>
+      </c>
+      <c r="H133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>211</v>
+      </c>
+      <c r="J133" t="s">
+        <v>212</v>
+      </c>
+      <c r="K133" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>3000153</v>
+      </c>
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" t="s">
+        <v>436</v>
+      </c>
+      <c r="D134" t="s">
+        <v>279</v>
+      </c>
+      <c r="F134">
+        <v>801</v>
+      </c>
+      <c r="G134" t="s">
+        <v>210</v>
+      </c>
+      <c r="H134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>211</v>
+      </c>
+      <c r="J134" t="s">
+        <v>212</v>
+      </c>
+      <c r="K134" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>3000154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" t="s">
+        <v>281</v>
+      </c>
+      <c r="F135">
+        <v>801</v>
+      </c>
+      <c r="G135" t="s">
+        <v>210</v>
+      </c>
+      <c r="H135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>211</v>
+      </c>
+      <c r="J135" t="s">
+        <v>212</v>
+      </c>
+      <c r="K135" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>3000155</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>438</v>
+      </c>
+      <c r="D136" t="s">
+        <v>283</v>
+      </c>
+      <c r="F136">
+        <v>801</v>
+      </c>
+      <c r="G136" t="s">
+        <v>210</v>
+      </c>
+      <c r="H136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>211</v>
+      </c>
+      <c r="J136" t="s">
+        <v>212</v>
+      </c>
+      <c r="K136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>3000156</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" t="s">
+        <v>439</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137">
+        <v>801</v>
+      </c>
+      <c r="G137" t="s">
+        <v>210</v>
+      </c>
+      <c r="H137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>211</v>
+      </c>
+      <c r="J137" t="s">
+        <v>212</v>
+      </c>
+      <c r="K137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>3000157</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>440</v>
+      </c>
+      <c r="D138" t="s">
+        <v>287</v>
+      </c>
+      <c r="F138">
+        <v>920</v>
+      </c>
+      <c r="G138" t="s">
+        <v>210</v>
+      </c>
+      <c r="H138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>211</v>
+      </c>
+      <c r="J138" t="s">
+        <v>212</v>
+      </c>
+      <c r="K138" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>3000158</v>
+      </c>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139">
+        <v>920</v>
+      </c>
+      <c r="G139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>211</v>
+      </c>
+      <c r="J139" t="s">
+        <v>212</v>
+      </c>
+      <c r="K139" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>3000159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140">
+        <v>920</v>
+      </c>
+      <c r="G140" t="s">
+        <v>210</v>
+      </c>
+      <c r="H140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>211</v>
+      </c>
+      <c r="J140" t="s">
+        <v>212</v>
+      </c>
+      <c r="K140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>3000160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" t="s">
+        <v>293</v>
+      </c>
+      <c r="F141">
+        <v>920</v>
+      </c>
+      <c r="G141" t="s">
+        <v>210</v>
+      </c>
+      <c r="H141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>211</v>
+      </c>
+      <c r="J141" t="s">
+        <v>212</v>
+      </c>
+      <c r="K141" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>3000161</v>
+      </c>
+      <c r="B142" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142" t="s">
+        <v>295</v>
+      </c>
+      <c r="F142">
+        <v>920</v>
+      </c>
+      <c r="G142" t="s">
+        <v>210</v>
+      </c>
+      <c r="H142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>211</v>
+      </c>
+      <c r="J142" t="s">
+        <v>212</v>
+      </c>
+      <c r="K142" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>3000162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" t="s">
+        <v>445</v>
+      </c>
+      <c r="D143" t="s">
+        <v>297</v>
+      </c>
+      <c r="F143">
+        <v>920</v>
+      </c>
+      <c r="G143" t="s">
+        <v>210</v>
+      </c>
+      <c r="H143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>211</v>
+      </c>
+      <c r="J143" t="s">
+        <v>212</v>
+      </c>
+      <c r="K143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>3000163</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>446</v>
+      </c>
+      <c r="D144" t="s">
+        <v>299</v>
+      </c>
+      <c r="F144">
+        <v>920</v>
+      </c>
+      <c r="G144" t="s">
+        <v>210</v>
+      </c>
+      <c r="H144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>211</v>
+      </c>
+      <c r="J144" t="s">
+        <v>212</v>
+      </c>
+      <c r="K144" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>3000164</v>
+      </c>
+      <c r="B145" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" t="s">
+        <v>301</v>
+      </c>
+      <c r="F145">
+        <v>920</v>
+      </c>
+      <c r="G145" t="s">
+        <v>210</v>
+      </c>
+      <c r="H145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>211</v>
+      </c>
+      <c r="J145" t="s">
+        <v>212</v>
+      </c>
+      <c r="K145" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>3000165</v>
+      </c>
+      <c r="B146" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" t="s">
+        <v>448</v>
+      </c>
+      <c r="D146" t="s">
+        <v>303</v>
+      </c>
+      <c r="F146">
+        <v>920</v>
+      </c>
+      <c r="G146" t="s">
+        <v>210</v>
+      </c>
+      <c r="H146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J146" t="s">
+        <v>212</v>
+      </c>
+      <c r="K146" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2911EA9D-1121-4585-B76C-0D2C71C8CD23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E979D79-77F4-4BAF-A7EA-D140A4941E09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="479">
   <si>
     <t>id</t>
   </si>
@@ -1367,6 +1367,96 @@
   </si>
   <si>
     <t>57-8C-B6-27-5B-18</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 30</t>
+  </si>
+  <si>
+    <t>D6-15-AC-80-6B-86</t>
+  </si>
+  <si>
+    <t>BS563Q2230814</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 30</t>
+  </si>
+  <si>
+    <t>6D-58-E2-DF-74-34</t>
+  </si>
+  <si>
+    <t>BS563Q2230815</t>
+  </si>
+  <si>
+    <t>Web Camera 30</t>
+  </si>
+  <si>
+    <t>E2-A8-56-86-15-30</t>
+  </si>
+  <si>
+    <t>BS563Q2230816</t>
+  </si>
+  <si>
+    <t>Document Scanner 30</t>
+  </si>
+  <si>
+    <t>72-E8-B9-FD-63-65</t>
+  </si>
+  <si>
+    <t>BS563Q2230817</t>
+  </si>
+  <si>
+    <t>Printer 30</t>
+  </si>
+  <si>
+    <t>D3-F3-A4-50-AD-12</t>
+  </si>
+  <si>
+    <t>BS563Q2230818</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 31</t>
+  </si>
+  <si>
+    <t>06-16-D0-0B-A6-E4</t>
+  </si>
+  <si>
+    <t>BS563Q2230819</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 31</t>
+  </si>
+  <si>
+    <t>21-78-45-AC-E9-20</t>
+  </si>
+  <si>
+    <t>BS563Q2230820</t>
+  </si>
+  <si>
+    <t>Web Camera 31</t>
+  </si>
+  <si>
+    <t>3C-E8-87-99-DB-FA</t>
+  </si>
+  <si>
+    <t>BS563Q2230821</t>
+  </si>
+  <si>
+    <t>Document Scanner 31</t>
+  </si>
+  <si>
+    <t>BF-55-53-98-40-08</t>
+  </si>
+  <si>
+    <t>BS563Q2230822</t>
+  </si>
+  <si>
+    <t>Printer 31</t>
+  </si>
+  <si>
+    <t>5A-43-36-46-22-EB</t>
+  </si>
+  <si>
+    <t>BS563Q2230823</t>
   </si>
 </sst>
 </file>
@@ -1687,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C146"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6381,6 +6471,326 @@
         <v>212</v>
       </c>
     </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>3000166</v>
+      </c>
+      <c r="B147" t="s">
+        <v>449</v>
+      </c>
+      <c r="C147" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" t="s">
+        <v>451</v>
+      </c>
+      <c r="F147">
+        <v>165</v>
+      </c>
+      <c r="G147" t="s">
+        <v>210</v>
+      </c>
+      <c r="H147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>211</v>
+      </c>
+      <c r="J147" t="s">
+        <v>212</v>
+      </c>
+      <c r="K147" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>3000167</v>
+      </c>
+      <c r="B148" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" t="s">
+        <v>453</v>
+      </c>
+      <c r="D148" t="s">
+        <v>454</v>
+      </c>
+      <c r="F148">
+        <v>327</v>
+      </c>
+      <c r="G148" t="s">
+        <v>210</v>
+      </c>
+      <c r="H148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J148" t="s">
+        <v>212</v>
+      </c>
+      <c r="K148" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>3000168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>455</v>
+      </c>
+      <c r="C149" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" t="s">
+        <v>457</v>
+      </c>
+      <c r="F149">
+        <v>736</v>
+      </c>
+      <c r="G149" t="s">
+        <v>210</v>
+      </c>
+      <c r="H149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>211</v>
+      </c>
+      <c r="J149" t="s">
+        <v>212</v>
+      </c>
+      <c r="K149" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>3000169</v>
+      </c>
+      <c r="B150" t="s">
+        <v>458</v>
+      </c>
+      <c r="C150" t="s">
+        <v>459</v>
+      </c>
+      <c r="D150" t="s">
+        <v>460</v>
+      </c>
+      <c r="F150">
+        <v>801</v>
+      </c>
+      <c r="G150" t="s">
+        <v>210</v>
+      </c>
+      <c r="H150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>211</v>
+      </c>
+      <c r="J150" t="s">
+        <v>212</v>
+      </c>
+      <c r="K150" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>3000170</v>
+      </c>
+      <c r="B151" t="s">
+        <v>461</v>
+      </c>
+      <c r="C151" t="s">
+        <v>462</v>
+      </c>
+      <c r="D151" t="s">
+        <v>463</v>
+      </c>
+      <c r="F151">
+        <v>920</v>
+      </c>
+      <c r="G151" t="s">
+        <v>210</v>
+      </c>
+      <c r="H151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>211</v>
+      </c>
+      <c r="J151" t="s">
+        <v>212</v>
+      </c>
+      <c r="K151" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>3000171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>464</v>
+      </c>
+      <c r="C152" t="s">
+        <v>465</v>
+      </c>
+      <c r="D152" t="s">
+        <v>466</v>
+      </c>
+      <c r="F152">
+        <v>165</v>
+      </c>
+      <c r="G152" t="s">
+        <v>210</v>
+      </c>
+      <c r="H152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>211</v>
+      </c>
+      <c r="J152" t="s">
+        <v>212</v>
+      </c>
+      <c r="K152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>3000172</v>
+      </c>
+      <c r="B153" t="s">
+        <v>467</v>
+      </c>
+      <c r="C153" t="s">
+        <v>468</v>
+      </c>
+      <c r="D153" t="s">
+        <v>469</v>
+      </c>
+      <c r="F153">
+        <v>327</v>
+      </c>
+      <c r="G153" t="s">
+        <v>210</v>
+      </c>
+      <c r="H153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>211</v>
+      </c>
+      <c r="J153" t="s">
+        <v>212</v>
+      </c>
+      <c r="K153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>3000173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>470</v>
+      </c>
+      <c r="C154" t="s">
+        <v>471</v>
+      </c>
+      <c r="D154" t="s">
+        <v>472</v>
+      </c>
+      <c r="F154">
+        <v>736</v>
+      </c>
+      <c r="G154" t="s">
+        <v>210</v>
+      </c>
+      <c r="H154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>211</v>
+      </c>
+      <c r="J154" t="s">
+        <v>212</v>
+      </c>
+      <c r="K154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>3000174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" t="s">
+        <v>474</v>
+      </c>
+      <c r="D155" t="s">
+        <v>475</v>
+      </c>
+      <c r="F155">
+        <v>801</v>
+      </c>
+      <c r="G155" t="s">
+        <v>210</v>
+      </c>
+      <c r="H155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>211</v>
+      </c>
+      <c r="J155" t="s">
+        <v>212</v>
+      </c>
+      <c r="K155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>3000175</v>
+      </c>
+      <c r="B156" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" t="s">
+        <v>477</v>
+      </c>
+      <c r="D156" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156">
+        <v>920</v>
+      </c>
+      <c r="G156" t="s">
+        <v>210</v>
+      </c>
+      <c r="H156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>211</v>
+      </c>
+      <c r="J156" t="s">
+        <v>212</v>
+      </c>
+      <c r="K156" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E979D79-77F4-4BAF-A7EA-D140A4941E09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00F55E62-2775-4547-AA58-B6F236B0C4AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="494">
   <si>
     <t>id</t>
   </si>
@@ -1457,6 +1457,51 @@
   </si>
   <si>
     <t>BS563Q2230823</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 32</t>
+  </si>
+  <si>
+    <t>80-75-40-E8-CA-24</t>
+  </si>
+  <si>
+    <t>BS563Q2230824</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 32</t>
+  </si>
+  <si>
+    <t>0E-1A-14-4A-6D-3A</t>
+  </si>
+  <si>
+    <t>BS563Q2230825</t>
+  </si>
+  <si>
+    <t>Web Camera 32</t>
+  </si>
+  <si>
+    <t>65-13-7F-0F-F7-53</t>
+  </si>
+  <si>
+    <t>BS563Q2230826</t>
+  </si>
+  <si>
+    <t>Document Scanner 32</t>
+  </si>
+  <si>
+    <t>73-C4-DE-8E-C9-8D</t>
+  </si>
+  <si>
+    <t>BS563Q2230827</t>
+  </si>
+  <si>
+    <t>Printer 32</t>
+  </si>
+  <si>
+    <t>EC-74-AB-E0-0F-38</t>
+  </si>
+  <si>
+    <t>BS563Q2230828</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6791,6 +6836,181 @@
         <v>212</v>
       </c>
     </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>3000176</v>
+      </c>
+      <c r="B157" t="s">
+        <v>479</v>
+      </c>
+      <c r="C157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D157" t="s">
+        <v>481</v>
+      </c>
+      <c r="F157">
+        <v>165</v>
+      </c>
+      <c r="G157" t="s">
+        <v>210</v>
+      </c>
+      <c r="H157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>211</v>
+      </c>
+      <c r="J157" t="s">
+        <v>212</v>
+      </c>
+      <c r="K157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>3000177</v>
+      </c>
+      <c r="B158" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" t="s">
+        <v>483</v>
+      </c>
+      <c r="D158" t="s">
+        <v>484</v>
+      </c>
+      <c r="F158">
+        <v>327</v>
+      </c>
+      <c r="G158" t="s">
+        <v>210</v>
+      </c>
+      <c r="H158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>211</v>
+      </c>
+      <c r="J158" t="s">
+        <v>212</v>
+      </c>
+      <c r="K158" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>3000178</v>
+      </c>
+      <c r="B159" t="s">
+        <v>485</v>
+      </c>
+      <c r="C159" t="s">
+        <v>486</v>
+      </c>
+      <c r="D159" t="s">
+        <v>487</v>
+      </c>
+      <c r="F159">
+        <v>736</v>
+      </c>
+      <c r="G159" t="s">
+        <v>210</v>
+      </c>
+      <c r="H159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>211</v>
+      </c>
+      <c r="J159" t="s">
+        <v>212</v>
+      </c>
+      <c r="K159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>3000179</v>
+      </c>
+      <c r="B160" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160" t="s">
+        <v>489</v>
+      </c>
+      <c r="D160" t="s">
+        <v>490</v>
+      </c>
+      <c r="F160">
+        <v>801</v>
+      </c>
+      <c r="G160" t="s">
+        <v>210</v>
+      </c>
+      <c r="H160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+      <c r="J160" t="s">
+        <v>212</v>
+      </c>
+      <c r="K160" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>3000180</v>
+      </c>
+      <c r="B161" t="s">
+        <v>491</v>
+      </c>
+      <c r="C161" t="s">
+        <v>492</v>
+      </c>
+      <c r="D161" t="s">
+        <v>493</v>
+      </c>
+      <c r="F161">
+        <v>920</v>
+      </c>
+      <c r="G161" t="s">
+        <v>210</v>
+      </c>
+      <c r="H161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>211</v>
+      </c>
+      <c r="J161" t="s">
+        <v>212</v>
+      </c>
+      <c r="K161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H166" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_master_h.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00F55E62-2775-4547-AA58-B6F236B0C4AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="494">
   <si>
     <t>id</t>
   </si>
@@ -51,306 +52,6 @@
     <t>dspec_id</t>
   </si>
   <si>
-    <t>85:bb:97:4b:14:05</t>
-  </si>
-  <si>
-    <t>cd:27:9d:d6:f4:7b</t>
-  </si>
-  <si>
-    <t>6b:d5:10:4b:3a:9e</t>
-  </si>
-  <si>
-    <t>05:0c:bb:36:3d:aa</t>
-  </si>
-  <si>
-    <t>bc:34:3e:e4:40:0d</t>
-  </si>
-  <si>
-    <t>8c:ae:12:9b:53:45</t>
-  </si>
-  <si>
-    <t>d4:98:44:dd:aa:f1</t>
-  </si>
-  <si>
-    <t>f2:26:5c:a9:88:63</t>
-  </si>
-  <si>
-    <t>2b:b1:c9:70:9d:da</t>
-  </si>
-  <si>
-    <t>94:e0:20:b1:c1:11</t>
-  </si>
-  <si>
-    <t>d7:88:e6:e4:9b:33</t>
-  </si>
-  <si>
-    <t>a7:64:1c:bf:97:c2</t>
-  </si>
-  <si>
-    <t>26:52:ca:b8:4b:ca</t>
-  </si>
-  <si>
-    <t>d6:0b:0f:fc:d0:b8</t>
-  </si>
-  <si>
-    <t>de:34:78:77:7e:ed</t>
-  </si>
-  <si>
-    <t>dc:e5:9c:a8:84:ab</t>
-  </si>
-  <si>
-    <t>dc:66:e1:05:ef:66</t>
-  </si>
-  <si>
-    <t>2d:f1:90:89:64:ac</t>
-  </si>
-  <si>
-    <t>91:16:2f:35:1f:9f</t>
-  </si>
-  <si>
-    <t>cb:b1:03:83:80:1d</t>
-  </si>
-  <si>
-    <t>11:fb:cf:6a:bf:29</t>
-  </si>
-  <si>
-    <t>6d:a3:60:2e:b8:2f</t>
-  </si>
-  <si>
-    <t>08:4b:68:23:1a:e6</t>
-  </si>
-  <si>
-    <t>de:be:02:60:64:4d</t>
-  </si>
-  <si>
-    <t>bc:b8:7f:f8:2f:30</t>
-  </si>
-  <si>
-    <t>52:d5:92:5a:27:04</t>
-  </si>
-  <si>
-    <t>bb:dc:5f:96:f3:27</t>
-  </si>
-  <si>
-    <t>77:a4:f0:6a:c6:53</t>
-  </si>
-  <si>
-    <t>85:90:5d:b6:99:bc</t>
-  </si>
-  <si>
-    <t>d0:18:f8:41:82:e9</t>
-  </si>
-  <si>
-    <t>a1:67:fa:cb:41:6e</t>
-  </si>
-  <si>
-    <t>f1:5b:c5:0d:9f:be</t>
-  </si>
-  <si>
-    <t>95:79:72:7a:5b:6e</t>
-  </si>
-  <si>
-    <t>3c:c6:d3:f1:53:3c</t>
-  </si>
-  <si>
-    <t>55:67:1d:45:37:70</t>
-  </si>
-  <si>
-    <t>12:34:54:1f:8b:27</t>
-  </si>
-  <si>
-    <t>d6:f9:de:3c:be:96</t>
-  </si>
-  <si>
-    <t>aa:d8:dc:3a:0a:a8</t>
-  </si>
-  <si>
-    <t>0d:1b:b0:5a:d9:98</t>
-  </si>
-  <si>
-    <t>fa:60:ac:d0:54:1c</t>
-  </si>
-  <si>
-    <t>b3:62:78:07:d4:d1</t>
-  </si>
-  <si>
-    <t>f8:69:df:bd:eb:c9</t>
-  </si>
-  <si>
-    <t>1c:4e:80:b6:91:b3</t>
-  </si>
-  <si>
-    <t>66:2b:aa:8e:9c:1f</t>
-  </si>
-  <si>
-    <t>6c:23:a2:93:6a:0b</t>
-  </si>
-  <si>
-    <t>ca:c8:b9:70:86:7c</t>
-  </si>
-  <si>
-    <t>ed:e0:cf:f5:84:20</t>
-  </si>
-  <si>
-    <t>44:76:fb:84:b7:5e</t>
-  </si>
-  <si>
-    <t>eb:90:ba:9d:14:57</t>
-  </si>
-  <si>
-    <t>f1:c5:13:c3:34:9f</t>
-  </si>
-  <si>
-    <t>c5:de:a4:58:43:39</t>
-  </si>
-  <si>
-    <t>f1:d5:0b:6b:e4:b4</t>
-  </si>
-  <si>
-    <t>46:ba:9d:e8:60:c0</t>
-  </si>
-  <si>
-    <t>14:69:34:b7:21:bb</t>
-  </si>
-  <si>
-    <t>ba:de:90:af:c4:6e</t>
-  </si>
-  <si>
-    <t>8d:28:4b:a7:f6:98</t>
-  </si>
-  <si>
-    <t>0f:ed:8f:0f:94:88</t>
-  </si>
-  <si>
-    <t>f2:d9:f8:92:f6:fb</t>
-  </si>
-  <si>
-    <t>76:24:19:e2:8e:30</t>
-  </si>
-  <si>
-    <t>d1:2c:d9:ba:5f:fe</t>
-  </si>
-  <si>
-    <t>7d:8b:8c:f7:26:bb</t>
-  </si>
-  <si>
-    <t>c7:03:1e:07:09:43</t>
-  </si>
-  <si>
-    <t>2d:42:6a:88:dd:d3</t>
-  </si>
-  <si>
-    <t>51:d0:3d:0c:c8:9a</t>
-  </si>
-  <si>
-    <t>15:0e:16:dc:5d:ef</t>
-  </si>
-  <si>
-    <t>a1:14:9d:db:bb:3d</t>
-  </si>
-  <si>
-    <t>11:12:fc:9b:04:32</t>
-  </si>
-  <si>
-    <t>cc:36:6d:22:37:f3</t>
-  </si>
-  <si>
-    <t>b0:64:72:ac:0a:6a</t>
-  </si>
-  <si>
-    <t>97:87:6f:ec:d7:2e</t>
-  </si>
-  <si>
-    <t>11:04:c3:f8:d8:9a</t>
-  </si>
-  <si>
-    <t>47:b4:b3:4d:bb:45</t>
-  </si>
-  <si>
-    <t>e6:cc:ed:f7:13:aa</t>
-  </si>
-  <si>
-    <t>ce:18:a0:46:c1:cd</t>
-  </si>
-  <si>
-    <t>e2:97:2c:0d:4b:94</t>
-  </si>
-  <si>
-    <t>8d:9e:fe:f1:6f:5c</t>
-  </si>
-  <si>
-    <t>1e:3d:c6:b4:1d:ac</t>
-  </si>
-  <si>
-    <t>77:de:3a:37:f4:32</t>
-  </si>
-  <si>
-    <t>a4:cf:07:60:f5:fc</t>
-  </si>
-  <si>
-    <t>68:cc:e0:08:41:17</t>
-  </si>
-  <si>
-    <t>79:2f:a1:5b:dc:ec</t>
-  </si>
-  <si>
-    <t>61:af:dd:71:76:13</t>
-  </si>
-  <si>
-    <t>08:8f:d4:67:4e:8c</t>
-  </si>
-  <si>
-    <t>aa:7d:ae:1c:95:ef</t>
-  </si>
-  <si>
-    <t>cb:35:36:de:9d:34</t>
-  </si>
-  <si>
-    <t>83:1b:1b:74:80:e6</t>
-  </si>
-  <si>
-    <t>04:fb:9c:f4:20:16</t>
-  </si>
-  <si>
-    <t>8c:47:48:94:f8:f8</t>
-  </si>
-  <si>
-    <t>3a:66:80:df:85:bb</t>
-  </si>
-  <si>
-    <t>1a:bb:e3:3c:99:e4</t>
-  </si>
-  <si>
-    <t>cf:a6:88:9e:27:05</t>
-  </si>
-  <si>
-    <t>d7:1c:ea:96:5b:38</t>
-  </si>
-  <si>
-    <t>4e:f1:04:0f:ab:8b</t>
-  </si>
-  <si>
-    <t>2c:7f:26:a8:4f:82</t>
-  </si>
-  <si>
-    <t>8c:e1:1a:a5:72:9f</t>
-  </si>
-  <si>
-    <t>a1:73:ee:d2:dc:90</t>
-  </si>
-  <si>
-    <t>95:e6:66:fb:bc:cb</t>
-  </si>
-  <si>
-    <t>91:18:5a:b4:c1:cb</t>
-  </si>
-  <si>
-    <t>fd:68:06:74:5b:1b</t>
-  </si>
-  <si>
-    <t>4c:d6:9c:db:b4:cc</t>
-  </si>
-  <si>
     <t>Finger Print Scanner 1</t>
   </si>
   <si>
@@ -961,12 +662,852 @@
   </si>
   <si>
     <t>eff_dtimes</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 21</t>
+  </si>
+  <si>
+    <t>SZ5912878989</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 22</t>
+  </si>
+  <si>
+    <t>SZ5912878990</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 23</t>
+  </si>
+  <si>
+    <t>SZ5912878991</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 24</t>
+  </si>
+  <si>
+    <t>SZ5912878992</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 25</t>
+  </si>
+  <si>
+    <t>SZ5912878993</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 26</t>
+  </si>
+  <si>
+    <t>SZ5912878994</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 27</t>
+  </si>
+  <si>
+    <t>SZ5912878995</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 28</t>
+  </si>
+  <si>
+    <t>SZ5912878996</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 29</t>
+  </si>
+  <si>
+    <t>SZ5912878997</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 21</t>
+  </si>
+  <si>
+    <t>JN7935692568</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 22</t>
+  </si>
+  <si>
+    <t>JN7935692569</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 23</t>
+  </si>
+  <si>
+    <t>JN7935692570</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 24</t>
+  </si>
+  <si>
+    <t>JN7935692571</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 25</t>
+  </si>
+  <si>
+    <t>JN7935692572</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 26</t>
+  </si>
+  <si>
+    <t>JN7935692573</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 27</t>
+  </si>
+  <si>
+    <t>JN7935692574</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 28</t>
+  </si>
+  <si>
+    <t>JN7935692575</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 29</t>
+  </si>
+  <si>
+    <t>JN7935692576</t>
+  </si>
+  <si>
+    <t>Web Camera 21</t>
+  </si>
+  <si>
+    <t>H483Y8886320689</t>
+  </si>
+  <si>
+    <t>Web Camera 22</t>
+  </si>
+  <si>
+    <t>H483Y8886330690</t>
+  </si>
+  <si>
+    <t>Web Camera 23</t>
+  </si>
+  <si>
+    <t>H483Y8886340691</t>
+  </si>
+  <si>
+    <t>Web Camera 24</t>
+  </si>
+  <si>
+    <t>H483Y8886350692</t>
+  </si>
+  <si>
+    <t>Web Camera 25</t>
+  </si>
+  <si>
+    <t>H483Y8886360693</t>
+  </si>
+  <si>
+    <t>Web Camera 26</t>
+  </si>
+  <si>
+    <t>H483Y8886370694</t>
+  </si>
+  <si>
+    <t>Web Camera 27</t>
+  </si>
+  <si>
+    <t>H483Y8886380695</t>
+  </si>
+  <si>
+    <t>Web Camera 28</t>
+  </si>
+  <si>
+    <t>H483Y8886390696</t>
+  </si>
+  <si>
+    <t>Web Camera 29</t>
+  </si>
+  <si>
+    <t>H483Y8886390697</t>
+  </si>
+  <si>
+    <t>Document Scanner 21</t>
+  </si>
+  <si>
+    <t>YZ492N3059199</t>
+  </si>
+  <si>
+    <t>Document Scanner 22</t>
+  </si>
+  <si>
+    <t>YZ492N3059190</t>
+  </si>
+  <si>
+    <t>Document Scanner 23</t>
+  </si>
+  <si>
+    <t>YZ492N3059191</t>
+  </si>
+  <si>
+    <t>Document Scanner 24</t>
+  </si>
+  <si>
+    <t>YZ492N3059192</t>
+  </si>
+  <si>
+    <t>Document Scanner 25</t>
+  </si>
+  <si>
+    <t>YZ492N3059193</t>
+  </si>
+  <si>
+    <t>Document Scanner 26</t>
+  </si>
+  <si>
+    <t>YZ492N3059194</t>
+  </si>
+  <si>
+    <t>Document Scanner 27</t>
+  </si>
+  <si>
+    <t>YZ492N3059195</t>
+  </si>
+  <si>
+    <t>Document Scanner 28</t>
+  </si>
+  <si>
+    <t>YZ492N3059196</t>
+  </si>
+  <si>
+    <t>Document Scanner 29</t>
+  </si>
+  <si>
+    <t>YZ492N3059197</t>
+  </si>
+  <si>
+    <t>Printer 21</t>
+  </si>
+  <si>
+    <t>BS563Q2230805</t>
+  </si>
+  <si>
+    <t>Printer 22</t>
+  </si>
+  <si>
+    <t>BS563Q2230806</t>
+  </si>
+  <si>
+    <t>Printer 23</t>
+  </si>
+  <si>
+    <t>BS563Q2230807</t>
+  </si>
+  <si>
+    <t>Printer 24</t>
+  </si>
+  <si>
+    <t>BS563Q2230808</t>
+  </si>
+  <si>
+    <t>Printer 25</t>
+  </si>
+  <si>
+    <t>BS563Q2230809</t>
+  </si>
+  <si>
+    <t>Printer 26</t>
+  </si>
+  <si>
+    <t>BS563Q2230810</t>
+  </si>
+  <si>
+    <t>Printer 27</t>
+  </si>
+  <si>
+    <t>BS563Q2230811</t>
+  </si>
+  <si>
+    <t>Printer 28</t>
+  </si>
+  <si>
+    <t>BS563Q2230812</t>
+  </si>
+  <si>
+    <t>Printer 29</t>
+  </si>
+  <si>
+    <t>BS563Q2230813</t>
+  </si>
+  <si>
+    <t>85-BB-97-4B-14-05</t>
+  </si>
+  <si>
+    <t>CD-27-9D-D6-F4-7B</t>
+  </si>
+  <si>
+    <t>6B-D5-10-4B-3A-9E</t>
+  </si>
+  <si>
+    <t>05-0C-BB-36-3D-AA</t>
+  </si>
+  <si>
+    <t>BC-34-3E-E4-40-0D</t>
+  </si>
+  <si>
+    <t>8C-AE-12-9B-53-45</t>
+  </si>
+  <si>
+    <t>D4-98-44-DD-AA-F1</t>
+  </si>
+  <si>
+    <t>F2-26-5C-A9-88-63</t>
+  </si>
+  <si>
+    <t>2B-B1-C9-70-9D-DA</t>
+  </si>
+  <si>
+    <t>94-E0-20-B1-C1-11</t>
+  </si>
+  <si>
+    <t>D7-88-E6-E4-9B-33</t>
+  </si>
+  <si>
+    <t>A7-64-1C-BF-97-C2</t>
+  </si>
+  <si>
+    <t>26-52-CA-B8-4B-CA</t>
+  </si>
+  <si>
+    <t>D6-0B-0F-FC-D0-B8</t>
+  </si>
+  <si>
+    <t>DE-34-78-77-7E-ED</t>
+  </si>
+  <si>
+    <t>DC-E5-9C-A8-84-AB</t>
+  </si>
+  <si>
+    <t>DC-66-E1-05-EF-66</t>
+  </si>
+  <si>
+    <t>2D-F1-90-89-64-AC</t>
+  </si>
+  <si>
+    <t>91-16-2F-35-1F-9F</t>
+  </si>
+  <si>
+    <t>CB-B1-03-83-80-1D</t>
+  </si>
+  <si>
+    <t>11-FB-CF-6A-BF-29</t>
+  </si>
+  <si>
+    <t>6D-A3-60-2E-B8-2F</t>
+  </si>
+  <si>
+    <t>08-4B-68-23-1A-E6</t>
+  </si>
+  <si>
+    <t>DE-BE-02-60-64-4D</t>
+  </si>
+  <si>
+    <t>BC-B8-7F-F8-2F-30</t>
+  </si>
+  <si>
+    <t>52-D5-92-5A-27-04</t>
+  </si>
+  <si>
+    <t>BB-DC-5F-96-F3-27</t>
+  </si>
+  <si>
+    <t>77-A4-F0-6A-C6-53</t>
+  </si>
+  <si>
+    <t>85-90-5D-B6-99-BC</t>
+  </si>
+  <si>
+    <t>D0-18-F8-41-82-E9</t>
+  </si>
+  <si>
+    <t>A1-67-FA-CB-41-6E</t>
+  </si>
+  <si>
+    <t>F1-5B-C5-0D-9F-BE</t>
+  </si>
+  <si>
+    <t>95-79-72-7A-5B-6E</t>
+  </si>
+  <si>
+    <t>3C-C6-D3-F1-53-3C</t>
+  </si>
+  <si>
+    <t>55-67-1D-45-37-70</t>
+  </si>
+  <si>
+    <t>12-34-54-1F-8B-27</t>
+  </si>
+  <si>
+    <t>D6-F9-DE-3C-BE-96</t>
+  </si>
+  <si>
+    <t>AA-D8-DC-3A-0A-A8</t>
+  </si>
+  <si>
+    <t>0D-1B-B0-5A-D9-98</t>
+  </si>
+  <si>
+    <t>FA-60-AC-D0-54-1C</t>
+  </si>
+  <si>
+    <t>B3-62-78-07-D4-D1</t>
+  </si>
+  <si>
+    <t>F8-69-DF-BD-EB-C9</t>
+  </si>
+  <si>
+    <t>1C-4E-80-B6-91-B3</t>
+  </si>
+  <si>
+    <t>66-2B-AA-8E-9C-1F</t>
+  </si>
+  <si>
+    <t>6C-23-A2-93-6A-0B</t>
+  </si>
+  <si>
+    <t>CA-C8-B9-70-86-7C</t>
+  </si>
+  <si>
+    <t>ED-E0-CF-F5-84-20</t>
+  </si>
+  <si>
+    <t>44-76-FB-84-B7-5E</t>
+  </si>
+  <si>
+    <t>EB-90-BA-9D-14-57</t>
+  </si>
+  <si>
+    <t>F1-C5-13-C3-34-9F</t>
+  </si>
+  <si>
+    <t>C5-DE-A4-58-43-39</t>
+  </si>
+  <si>
+    <t>F1-D5-0B-6B-E4-B4</t>
+  </si>
+  <si>
+    <t>46-BA-9D-E8-60-C0</t>
+  </si>
+  <si>
+    <t>14-69-34-B7-21-BB</t>
+  </si>
+  <si>
+    <t>BA-DE-90-AF-C4-6E</t>
+  </si>
+  <si>
+    <t>8D-28-4B-A7-F6-98</t>
+  </si>
+  <si>
+    <t>0F-ED-8F-0F-94-88</t>
+  </si>
+  <si>
+    <t>F2-D9-F8-92-F6-FB</t>
+  </si>
+  <si>
+    <t>76-24-19-E2-8E-30</t>
+  </si>
+  <si>
+    <t>D1-2C-D9-BA-5F-FE</t>
+  </si>
+  <si>
+    <t>7D-8B-8C-F7-26-BB</t>
+  </si>
+  <si>
+    <t>C7-03-1E-07-09-43</t>
+  </si>
+  <si>
+    <t>2D-42-6A-88-DD-D3</t>
+  </si>
+  <si>
+    <t>51-D0-3D-0C-C8-9A</t>
+  </si>
+  <si>
+    <t>15-0E-16-DC-5D-EF</t>
+  </si>
+  <si>
+    <t>A1-14-9D-DB-BB-3D</t>
+  </si>
+  <si>
+    <t>11-12-FC-9B-04-32</t>
+  </si>
+  <si>
+    <t>CC-36-6D-22-37-F3</t>
+  </si>
+  <si>
+    <t>B0-64-72-AC-0A-6A</t>
+  </si>
+  <si>
+    <t>97-87-6F-EC-D7-2E</t>
+  </si>
+  <si>
+    <t>11-04-C3-F8-D8-9A</t>
+  </si>
+  <si>
+    <t>47-B4-B3-4D-BB-45</t>
+  </si>
+  <si>
+    <t>E6-CC-ED-F7-13-AA</t>
+  </si>
+  <si>
+    <t>CE-18-A0-46-C1-CD</t>
+  </si>
+  <si>
+    <t>E2-97-2C-0D-4B-94</t>
+  </si>
+  <si>
+    <t>8D-9E-FE-F1-6F-5C</t>
+  </si>
+  <si>
+    <t>1E-3D-C6-B4-1D-AC</t>
+  </si>
+  <si>
+    <t>77-DE-3A-37-F4-32</t>
+  </si>
+  <si>
+    <t>A4-CF-07-60-F5-FC</t>
+  </si>
+  <si>
+    <t>68-CC-E0-08-41-17</t>
+  </si>
+  <si>
+    <t>79-2F-A1-5B-DC-EC</t>
+  </si>
+  <si>
+    <t>61-AF-DD-71-76-13</t>
+  </si>
+  <si>
+    <t>08-8F-D4-67-4E-8C</t>
+  </si>
+  <si>
+    <t>AA-7D-AE-1C-95-EF</t>
+  </si>
+  <si>
+    <t>CB-35-36-DE-9D-34</t>
+  </si>
+  <si>
+    <t>83-1B-1B-74-80-E6</t>
+  </si>
+  <si>
+    <t>04-FB-9C-F4-20-16</t>
+  </si>
+  <si>
+    <t>8C-47-48-94-F8-F8</t>
+  </si>
+  <si>
+    <t>3A-66-80-DF-85-BB</t>
+  </si>
+  <si>
+    <t>1A-BB-E3-3C-99-E4</t>
+  </si>
+  <si>
+    <t>CF-A6-88-9E-27-05</t>
+  </si>
+  <si>
+    <t>D7-1C-EA-96-5B-38</t>
+  </si>
+  <si>
+    <t>4E-F1-04-0F-AB-8B</t>
+  </si>
+  <si>
+    <t>2C-7F-26-A8-4F-82</t>
+  </si>
+  <si>
+    <t>8C-E1-1A-A5-72-9F</t>
+  </si>
+  <si>
+    <t>A1-73-EE-D2-DC-90</t>
+  </si>
+  <si>
+    <t>95-E6-66-FB-BC-CB</t>
+  </si>
+  <si>
+    <t>91-18-5A-B4-C1-CB</t>
+  </si>
+  <si>
+    <t>FD-68-06-74-5B-1B</t>
+  </si>
+  <si>
+    <t>4C-D6-9C-DB-B4-CC</t>
+  </si>
+  <si>
+    <t>7F-91-FB-EC-02-B2</t>
+  </si>
+  <si>
+    <t>7F-E0-CC-F9-4D-FC</t>
+  </si>
+  <si>
+    <t>43-85-ED-59-95-AD</t>
+  </si>
+  <si>
+    <t>3B-5D-36-FE-2D-09</t>
+  </si>
+  <si>
+    <t>7A-E6-6B-3A-30-C4</t>
+  </si>
+  <si>
+    <t>BC-59-89-1F-57-1A</t>
+  </si>
+  <si>
+    <t>68-68-A7-82-76-CC</t>
+  </si>
+  <si>
+    <t>61-5E-47-8C-7B-C2</t>
+  </si>
+  <si>
+    <t>22-7B-09-19-D7-C7</t>
+  </si>
+  <si>
+    <t>E9-B9-77-10-69-57</t>
+  </si>
+  <si>
+    <t>EC-90-5E-C5-76-84</t>
+  </si>
+  <si>
+    <t>40-79-3B-A5-6F-12</t>
+  </si>
+  <si>
+    <t>BF-02-DD-BF-72-F1</t>
+  </si>
+  <si>
+    <t>7B-7C-F4-68-E9-98</t>
+  </si>
+  <si>
+    <t>22-21-BB-C3-05-59</t>
+  </si>
+  <si>
+    <t>BD-1F-E1-C4-52-AA</t>
+  </si>
+  <si>
+    <t>F5-F8-6E-16-39-82</t>
+  </si>
+  <si>
+    <t>78-CC-3D-6D-FD-1D</t>
+  </si>
+  <si>
+    <t>73-4D-AF-D8-54-59</t>
+  </si>
+  <si>
+    <t>47-E7-76-10-5E-7B</t>
+  </si>
+  <si>
+    <t>B7-F0-0C-30-70-E7</t>
+  </si>
+  <si>
+    <t>3D-CF-71-BC-6B-CE</t>
+  </si>
+  <si>
+    <t>F3-E0-54-EF-38-55</t>
+  </si>
+  <si>
+    <t>14-A5-CC-0D-6D-3E</t>
+  </si>
+  <si>
+    <t>99-1B-4A-C8-40-CE</t>
+  </si>
+  <si>
+    <t>FD-E1-A6-F5-7B-22</t>
+  </si>
+  <si>
+    <t>56-5D-97-76-13-D4</t>
+  </si>
+  <si>
+    <t>00-7E-9C-5F-D4-6B</t>
+  </si>
+  <si>
+    <t>68-FA-50-36-8F-4F</t>
+  </si>
+  <si>
+    <t>8A-56-30-38-F3-6B</t>
+  </si>
+  <si>
+    <t>D8-DE-E5-0B-0E-FB</t>
+  </si>
+  <si>
+    <t>06-54-57-AA-D8-27</t>
+  </si>
+  <si>
+    <t>55-11-25-DC-AD-A3</t>
+  </si>
+  <si>
+    <t>50-3C-0A-00-48-96</t>
+  </si>
+  <si>
+    <t>5E-24-40-CF-F2-A3</t>
+  </si>
+  <si>
+    <t>FC-47-29-B5-89-F0</t>
+  </si>
+  <si>
+    <t>23-CE-71-BA-BA-1D</t>
+  </si>
+  <si>
+    <t>13-58-64-3B-93-81</t>
+  </si>
+  <si>
+    <t>8A-B5-F1-CB-D1-F0</t>
+  </si>
+  <si>
+    <t>E5-49-B2-0D-06-B5</t>
+  </si>
+  <si>
+    <t>F9-42-11-AC-26-97</t>
+  </si>
+  <si>
+    <t>9C-C9-7F-A3-3F-DD</t>
+  </si>
+  <si>
+    <t>CD-E5-93-66-5D-1E</t>
+  </si>
+  <si>
+    <t>CA-BE-9C-DD-6A-7A</t>
+  </si>
+  <si>
+    <t>57-8C-B6-27-5B-18</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 30</t>
+  </si>
+  <si>
+    <t>D6-15-AC-80-6B-86</t>
+  </si>
+  <si>
+    <t>BS563Q2230814</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 30</t>
+  </si>
+  <si>
+    <t>6D-58-E2-DF-74-34</t>
+  </si>
+  <si>
+    <t>BS563Q2230815</t>
+  </si>
+  <si>
+    <t>Web Camera 30</t>
+  </si>
+  <si>
+    <t>E2-A8-56-86-15-30</t>
+  </si>
+  <si>
+    <t>BS563Q2230816</t>
+  </si>
+  <si>
+    <t>Document Scanner 30</t>
+  </si>
+  <si>
+    <t>72-E8-B9-FD-63-65</t>
+  </si>
+  <si>
+    <t>BS563Q2230817</t>
+  </si>
+  <si>
+    <t>Printer 30</t>
+  </si>
+  <si>
+    <t>D3-F3-A4-50-AD-12</t>
+  </si>
+  <si>
+    <t>BS563Q2230818</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 31</t>
+  </si>
+  <si>
+    <t>06-16-D0-0B-A6-E4</t>
+  </si>
+  <si>
+    <t>BS563Q2230819</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 31</t>
+  </si>
+  <si>
+    <t>21-78-45-AC-E9-20</t>
+  </si>
+  <si>
+    <t>BS563Q2230820</t>
+  </si>
+  <si>
+    <t>Web Camera 31</t>
+  </si>
+  <si>
+    <t>3C-E8-87-99-DB-FA</t>
+  </si>
+  <si>
+    <t>BS563Q2230821</t>
+  </si>
+  <si>
+    <t>Document Scanner 31</t>
+  </si>
+  <si>
+    <t>BF-55-53-98-40-08</t>
+  </si>
+  <si>
+    <t>BS563Q2230822</t>
+  </si>
+  <si>
+    <t>Printer 31</t>
+  </si>
+  <si>
+    <t>5A-43-36-46-22-EB</t>
+  </si>
+  <si>
+    <t>BS563Q2230823</t>
+  </si>
+  <si>
+    <t>Finger Print Scanner 32</t>
+  </si>
+  <si>
+    <t>80-75-40-E8-CA-24</t>
+  </si>
+  <si>
+    <t>BS563Q2230824</t>
+  </si>
+  <si>
+    <t>IRIS Scanner 32</t>
+  </si>
+  <si>
+    <t>0E-1A-14-4A-6D-3A</t>
+  </si>
+  <si>
+    <t>BS563Q2230825</t>
+  </si>
+  <si>
+    <t>Web Camera 32</t>
+  </si>
+  <si>
+    <t>65-13-7F-0F-F7-53</t>
+  </si>
+  <si>
+    <t>BS563Q2230826</t>
+  </si>
+  <si>
+    <t>Document Scanner 32</t>
+  </si>
+  <si>
+    <t>73-C4-DE-8E-C9-8D</t>
+  </si>
+  <si>
+    <t>BS563Q2230827</t>
+  </si>
+  <si>
+    <t>Printer 32</t>
+  </si>
+  <si>
+    <t>EC-74-AB-E0-0F-38</t>
+  </si>
+  <si>
+    <t>BS563Q2230828</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,17 +1821,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -1298,17 +1839,6 @@
     <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1343,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1351,31 +1881,31 @@
         <v>3000021</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
       </c>
       <c r="F2">
         <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1383,31 +1913,31 @@
         <v>3000022</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1415,31 +1945,31 @@
         <v>3000023</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1447,31 +1977,31 @@
         <v>3000024</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
       </c>
       <c r="F5">
         <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1479,31 +2009,31 @@
         <v>3000025</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
       </c>
       <c r="F6">
         <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J6" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1511,31 +2041,31 @@
         <v>3000026</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
       </c>
       <c r="F7">
         <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1543,31 +2073,31 @@
         <v>3000027</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
       </c>
       <c r="F8">
         <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1575,31 +2105,31 @@
         <v>3000028</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
       </c>
       <c r="F9">
         <v>165</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1607,31 +2137,31 @@
         <v>3000029</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
       </c>
       <c r="F10">
         <v>165</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K10" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1639,31 +2169,31 @@
         <v>3000030</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>219</v>
       </c>
       <c r="F11">
         <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J11" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K11" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1671,31 +2201,31 @@
         <v>3000031</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>220</v>
       </c>
       <c r="F12">
         <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J12" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K12" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1703,31 +2233,31 @@
         <v>3000032</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
         <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
       </c>
       <c r="F13">
         <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J13" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1735,31 +2265,31 @@
         <v>3000033</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
       </c>
       <c r="F14">
         <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K14" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1767,31 +2297,31 @@
         <v>3000034</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>223</v>
       </c>
       <c r="F15">
         <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K15" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1799,31 +2329,31 @@
         <v>3000035</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
         <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
       </c>
       <c r="F16">
         <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K16" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1831,31 +2361,31 @@
         <v>3000036</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>225</v>
       </c>
       <c r="F17">
         <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1863,31 +2393,31 @@
         <v>3000037</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
         <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>226</v>
       </c>
       <c r="F18">
         <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K18" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1895,31 +2425,31 @@
         <v>3000038</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" t="s">
         <v>127</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>227</v>
       </c>
       <c r="F19">
         <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1927,31 +2457,31 @@
         <v>3000039</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>228</v>
       </c>
       <c r="F20">
         <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1959,31 +2489,31 @@
         <v>3000040</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
         <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>229</v>
       </c>
       <c r="F21">
         <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1991,31 +2521,31 @@
         <v>3000041</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" t="s">
         <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>230</v>
       </c>
       <c r="F22">
         <v>327</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2023,31 +2553,31 @@
         <v>3000042</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="F23">
         <v>327</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -2055,31 +2585,31 @@
         <v>3000043</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="F24">
         <v>327</v>
       </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2087,31 +2617,31 @@
         <v>3000044</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="F25">
         <v>327</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2119,31 +2649,31 @@
         <v>3000045</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="F26">
         <v>327</v>
       </c>
       <c r="G26" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2151,31 +2681,31 @@
         <v>3000046</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>327</v>
       </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2183,31 +2713,31 @@
         <v>3000047</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="F28">
         <v>327</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2215,31 +2745,31 @@
         <v>3000048</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F29">
         <v>327</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2247,31 +2777,31 @@
         <v>3000049</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>327</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2279,31 +2809,31 @@
         <v>3000050</v>
       </c>
       <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" t="s">
         <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>239</v>
       </c>
       <c r="F31">
         <v>327</v>
       </c>
       <c r="G31" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2311,31 +2841,31 @@
         <v>3000051</v>
       </c>
       <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" t="s">
         <v>140</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>240</v>
       </c>
       <c r="F32">
         <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2343,31 +2873,31 @@
         <v>3000052</v>
       </c>
       <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
         <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>241</v>
       </c>
       <c r="F33">
         <v>327</v>
       </c>
       <c r="G33" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2375,31 +2905,31 @@
         <v>3000053</v>
       </c>
       <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" t="s">
         <v>142</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>242</v>
       </c>
       <c r="F34">
         <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2407,31 +2937,31 @@
         <v>3000054</v>
       </c>
       <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" t="s">
         <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>243</v>
       </c>
       <c r="F35">
         <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2439,31 +2969,31 @@
         <v>3000055</v>
       </c>
       <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>244</v>
       </c>
       <c r="F36">
         <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2471,31 +3001,31 @@
         <v>3000056</v>
       </c>
       <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>245</v>
       </c>
       <c r="F37">
         <v>327</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2503,31 +3033,31 @@
         <v>3000057</v>
       </c>
       <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>246</v>
       </c>
       <c r="F38">
         <v>327</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2535,31 +3065,31 @@
         <v>3000058</v>
       </c>
       <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" t="s">
         <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>247</v>
       </c>
       <c r="F39">
         <v>327</v>
       </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2567,31 +3097,31 @@
         <v>3000059</v>
       </c>
       <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" t="s">
         <v>148</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" t="s">
-        <v>248</v>
       </c>
       <c r="F40">
         <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2599,31 +3129,31 @@
         <v>3000060</v>
       </c>
       <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" t="s">
         <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>249</v>
       </c>
       <c r="F41">
         <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2631,31 +3161,31 @@
         <v>3000061</v>
       </c>
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" t="s">
         <v>150</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>250</v>
       </c>
       <c r="F42">
         <v>736</v>
       </c>
       <c r="G42" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2663,31 +3193,31 @@
         <v>3000062</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="F43">
         <v>736</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J43" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2695,31 +3225,31 @@
         <v>3000063</v>
       </c>
       <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" t="s">
         <v>152</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>252</v>
       </c>
       <c r="F44">
         <v>736</v>
       </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2727,31 +3257,31 @@
         <v>3000064</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="F45">
         <v>736</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2759,31 +3289,31 @@
         <v>3000065</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="F46">
         <v>736</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K46" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2791,31 +3321,31 @@
         <v>3000066</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="F47">
         <v>736</v>
       </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2823,31 +3353,31 @@
         <v>3000067</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="F48">
         <v>736</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K48" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2855,31 +3385,31 @@
         <v>3000068</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="F49">
         <v>736</v>
       </c>
       <c r="G49" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J49" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2887,31 +3417,31 @@
         <v>3000069</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="F50">
         <v>736</v>
       </c>
       <c r="G50" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J50" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K50" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2919,31 +3449,31 @@
         <v>3000070</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>736</v>
       </c>
       <c r="G51" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J51" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K51" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2951,31 +3481,31 @@
         <v>3000071</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="F52">
         <v>736</v>
       </c>
       <c r="G52" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J52" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2983,31 +3513,31 @@
         <v>3000072</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="F53">
         <v>736</v>
       </c>
       <c r="G53" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J53" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -3015,31 +3545,31 @@
         <v>3000073</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>736</v>
       </c>
       <c r="G54" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J54" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K54" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3047,31 +3577,31 @@
         <v>3000074</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="F55">
         <v>736</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J55" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K55" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -3079,31 +3609,31 @@
         <v>3000075</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="F56">
         <v>736</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J56" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K56" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -3111,31 +3641,31 @@
         <v>3000076</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>359</v>
       </c>
       <c r="D57" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="F57">
         <v>736</v>
       </c>
       <c r="G57" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J57" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K57" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3143,31 +3673,31 @@
         <v>3000077</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="F58">
         <v>736</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K58" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3175,31 +3705,31 @@
         <v>3000078</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="F59">
         <v>736</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J59" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K59" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -3207,31 +3737,31 @@
         <v>3000079</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>362</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="F60">
         <v>736</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J60" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K60" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3239,31 +3769,31 @@
         <v>3000080</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="F61">
         <v>736</v>
       </c>
       <c r="G61" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J61" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K61" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3271,31 +3801,31 @@
         <v>3000081</v>
       </c>
       <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" t="s">
         <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" t="s">
-        <v>270</v>
       </c>
       <c r="F62">
         <v>801</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J62" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K62" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3303,31 +3833,31 @@
         <v>3000082</v>
       </c>
       <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" t="s">
         <v>171</v>
-      </c>
-      <c r="C63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" t="s">
-        <v>271</v>
       </c>
       <c r="F63">
         <v>801</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J63" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K63" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3335,31 +3865,31 @@
         <v>3000083</v>
       </c>
       <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" t="s">
-        <v>272</v>
       </c>
       <c r="F64">
         <v>801</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J64" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K64" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3367,31 +3897,31 @@
         <v>3000084</v>
       </c>
       <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>367</v>
+      </c>
+      <c r="D65" t="s">
         <v>173</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" t="s">
-        <v>273</v>
       </c>
       <c r="F65">
         <v>801</v>
       </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J65" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K65" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3399,31 +3929,31 @@
         <v>3000085</v>
       </c>
       <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" t="s">
-        <v>274</v>
       </c>
       <c r="F66">
         <v>801</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J66" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3431,31 +3961,31 @@
         <v>3000086</v>
       </c>
       <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" t="s">
         <v>175</v>
-      </c>
-      <c r="C67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" t="s">
-        <v>275</v>
       </c>
       <c r="F67">
         <v>801</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J67" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K67" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3463,31 +3993,31 @@
         <v>3000087</v>
       </c>
       <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D68" t="s">
         <v>176</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" t="s">
-        <v>276</v>
       </c>
       <c r="F68">
         <v>801</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J68" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K68" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -3495,31 +4025,31 @@
         <v>3000088</v>
       </c>
       <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" t="s">
         <v>177</v>
-      </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" t="s">
-        <v>277</v>
       </c>
       <c r="F69">
         <v>801</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J69" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K69" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -3527,31 +4057,31 @@
         <v>3000089</v>
       </c>
       <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" t="s">
         <v>178</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
-        <v>278</v>
       </c>
       <c r="F70">
         <v>801</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J70" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3559,31 +4089,31 @@
         <v>3000090</v>
       </c>
       <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" t="s">
         <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>279</v>
       </c>
       <c r="F71">
         <v>801</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J71" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K71" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3591,31 +4121,31 @@
         <v>3000091</v>
       </c>
       <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" t="s">
         <v>180</v>
-      </c>
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" t="s">
-        <v>280</v>
       </c>
       <c r="F72">
         <v>801</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J72" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K72" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3623,31 +4153,31 @@
         <v>3000092</v>
       </c>
       <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" t="s">
-        <v>281</v>
       </c>
       <c r="F73">
         <v>801</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J73" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K73" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3655,31 +4185,31 @@
         <v>3000093</v>
       </c>
       <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" t="s">
         <v>182</v>
-      </c>
-      <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>282</v>
       </c>
       <c r="F74">
         <v>801</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J74" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K74" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3687,31 +4217,31 @@
         <v>3000094</v>
       </c>
       <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" t="s">
         <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>283</v>
       </c>
       <c r="F75">
         <v>801</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J75" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K75" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -3719,31 +4249,31 @@
         <v>3000095</v>
       </c>
       <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" t="s">
         <v>184</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>284</v>
       </c>
       <c r="F76">
         <v>801</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3751,31 +4281,31 @@
         <v>3000096</v>
       </c>
       <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" t="s">
         <v>185</v>
-      </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>285</v>
       </c>
       <c r="F77">
         <v>801</v>
       </c>
       <c r="G77" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J77" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K77" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3783,31 +4313,31 @@
         <v>3000097</v>
       </c>
       <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" t="s">
         <v>186</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>286</v>
       </c>
       <c r="F78">
         <v>801</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J78" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K78" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3815,31 +4345,31 @@
         <v>3000098</v>
       </c>
       <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" t="s">
         <v>187</v>
-      </c>
-      <c r="C79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" t="s">
-        <v>287</v>
       </c>
       <c r="F79">
         <v>801</v>
       </c>
       <c r="G79" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J79" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K79" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3847,31 +4377,31 @@
         <v>3000099</v>
       </c>
       <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" t="s">
         <v>188</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>288</v>
       </c>
       <c r="F80">
         <v>801</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J80" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K80" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3879,31 +4409,31 @@
         <v>3000100</v>
       </c>
       <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" t="s">
         <v>189</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" t="s">
-        <v>289</v>
       </c>
       <c r="F81">
         <v>801</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J81" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K81" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3911,31 +4441,31 @@
         <v>3000101</v>
       </c>
       <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" t="s">
         <v>190</v>
-      </c>
-      <c r="C82" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" t="s">
-        <v>290</v>
       </c>
       <c r="F82">
         <v>920</v>
       </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J82" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K82" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3943,31 +4473,31 @@
         <v>3000102</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="F83">
         <v>920</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J83" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K83" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -3975,31 +4505,31 @@
         <v>3000103</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="F84">
         <v>920</v>
       </c>
       <c r="G84" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J84" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K84" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -4007,31 +4537,31 @@
         <v>3000104</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="F85">
         <v>920</v>
       </c>
       <c r="G85" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J85" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K85" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -4039,31 +4569,31 @@
         <v>3000105</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>388</v>
       </c>
       <c r="D86" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="F86">
         <v>920</v>
       </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J86" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K86" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -4071,31 +4601,31 @@
         <v>3000106</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="F87">
         <v>920</v>
       </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J87" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K87" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4103,31 +4633,31 @@
         <v>3000107</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="F88">
         <v>920</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J88" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K88" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4135,31 +4665,31 @@
         <v>3000108</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="F89">
         <v>920</v>
       </c>
       <c r="G89" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J89" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K89" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4167,31 +4697,31 @@
         <v>3000109</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="F90">
         <v>920</v>
       </c>
       <c r="G90" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J90" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K90" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -4199,31 +4729,31 @@
         <v>3000110</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="F91">
         <v>920</v>
       </c>
       <c r="G91" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J91" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K91" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -4231,31 +4761,31 @@
         <v>3000111</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F92">
         <v>920</v>
       </c>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J92" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K92" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4263,31 +4793,31 @@
         <v>3000112</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="F93">
         <v>920</v>
       </c>
       <c r="G93" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J93" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K93" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -4295,31 +4825,31 @@
         <v>3000113</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="D94" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="F94">
         <v>920</v>
       </c>
       <c r="G94" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J94" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K94" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -4327,31 +4857,31 @@
         <v>3000114</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="F95">
         <v>920</v>
       </c>
       <c r="G95" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J95" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K95" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4359,31 +4889,31 @@
         <v>3000115</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="F96">
         <v>920</v>
       </c>
       <c r="G96" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J96" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K96" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4391,31 +4921,31 @@
         <v>3000116</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="F97">
         <v>920</v>
       </c>
       <c r="G97" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J97" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -4423,31 +4953,31 @@
         <v>3000117</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="F98">
         <v>920</v>
       </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J98" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K98" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -4455,31 +4985,31 @@
         <v>3000118</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="F99">
         <v>920</v>
       </c>
       <c r="G99" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H99" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K99" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -4487,31 +5017,31 @@
         <v>3000119</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F100">
         <v>920</v>
       </c>
       <c r="G100" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J100" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K100" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -4519,32 +5049,1967 @@
         <v>3000120</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F101">
         <v>920</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="J101" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K101" t="s">
-        <v>312</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>3000121</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>210</v>
+      </c>
+      <c r="H102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>211</v>
+      </c>
+      <c r="J102" t="s">
+        <v>212</v>
+      </c>
+      <c r="K102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3000122</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103">
+        <v>165</v>
+      </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>211</v>
+      </c>
+      <c r="J103" t="s">
+        <v>212</v>
+      </c>
+      <c r="K103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3000123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104">
+        <v>165</v>
+      </c>
+      <c r="G104" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>211</v>
+      </c>
+      <c r="J104" t="s">
+        <v>212</v>
+      </c>
+      <c r="K104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>3000124</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105">
+        <v>165</v>
+      </c>
+      <c r="G105" t="s">
+        <v>210</v>
+      </c>
+      <c r="H105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>211</v>
+      </c>
+      <c r="J105" t="s">
+        <v>212</v>
+      </c>
+      <c r="K105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3000125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106">
+        <v>165</v>
+      </c>
+      <c r="G106" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>211</v>
+      </c>
+      <c r="J106" t="s">
+        <v>212</v>
+      </c>
+      <c r="K106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3000126</v>
+      </c>
+      <c r="B107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107">
+        <v>165</v>
+      </c>
+      <c r="G107" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>211</v>
+      </c>
+      <c r="J107" t="s">
+        <v>212</v>
+      </c>
+      <c r="K107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3000127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" t="s">
+        <v>227</v>
+      </c>
+      <c r="F108">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>211</v>
+      </c>
+      <c r="J108" t="s">
+        <v>212</v>
+      </c>
+      <c r="K108" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>3000128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="s">
+        <v>411</v>
+      </c>
+      <c r="D109" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109">
+        <v>165</v>
+      </c>
+      <c r="G109" t="s">
+        <v>210</v>
+      </c>
+      <c r="H109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>211</v>
+      </c>
+      <c r="J109" t="s">
+        <v>212</v>
+      </c>
+      <c r="K109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>3000129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="F110">
+        <v>165</v>
+      </c>
+      <c r="G110" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>211</v>
+      </c>
+      <c r="J110" t="s">
+        <v>212</v>
+      </c>
+      <c r="K110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>3000130</v>
+      </c>
+      <c r="B111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111">
+        <v>327</v>
+      </c>
+      <c r="G111" t="s">
+        <v>210</v>
+      </c>
+      <c r="H111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>211</v>
+      </c>
+      <c r="J111" t="s">
+        <v>212</v>
+      </c>
+      <c r="K111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>3000131</v>
+      </c>
+      <c r="B112" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" t="s">
+        <v>414</v>
+      </c>
+      <c r="D112" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112">
+        <v>327</v>
+      </c>
+      <c r="G112" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>211</v>
+      </c>
+      <c r="J112" t="s">
+        <v>212</v>
+      </c>
+      <c r="K112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>3000132</v>
+      </c>
+      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="F113">
+        <v>327</v>
+      </c>
+      <c r="G113" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>211</v>
+      </c>
+      <c r="J113" t="s">
+        <v>212</v>
+      </c>
+      <c r="K113" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>3000133</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" t="s">
+        <v>416</v>
+      </c>
+      <c r="D114" t="s">
+        <v>239</v>
+      </c>
+      <c r="F114">
+        <v>327</v>
+      </c>
+      <c r="G114" t="s">
+        <v>210</v>
+      </c>
+      <c r="H114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>211</v>
+      </c>
+      <c r="J114" t="s">
+        <v>212</v>
+      </c>
+      <c r="K114" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>3000134</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" t="s">
+        <v>417</v>
+      </c>
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F115">
+        <v>327</v>
+      </c>
+      <c r="G115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>211</v>
+      </c>
+      <c r="J115" t="s">
+        <v>212</v>
+      </c>
+      <c r="K115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>3000135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>418</v>
+      </c>
+      <c r="D116" t="s">
+        <v>243</v>
+      </c>
+      <c r="F116">
+        <v>327</v>
+      </c>
+      <c r="G116" t="s">
+        <v>210</v>
+      </c>
+      <c r="H116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>211</v>
+      </c>
+      <c r="J116" t="s">
+        <v>212</v>
+      </c>
+      <c r="K116" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>3000136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" t="s">
+        <v>245</v>
+      </c>
+      <c r="F117">
+        <v>327</v>
+      </c>
+      <c r="G117" t="s">
+        <v>210</v>
+      </c>
+      <c r="H117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>211</v>
+      </c>
+      <c r="J117" t="s">
+        <v>212</v>
+      </c>
+      <c r="K117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>3000137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" t="s">
+        <v>247</v>
+      </c>
+      <c r="F118">
+        <v>327</v>
+      </c>
+      <c r="G118" t="s">
+        <v>210</v>
+      </c>
+      <c r="H118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>211</v>
+      </c>
+      <c r="J118" t="s">
+        <v>212</v>
+      </c>
+      <c r="K118" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>3000138</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119">
+        <v>327</v>
+      </c>
+      <c r="G119" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>211</v>
+      </c>
+      <c r="J119" t="s">
+        <v>212</v>
+      </c>
+      <c r="K119" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>3000139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
+      </c>
+      <c r="F120">
+        <v>736</v>
+      </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>211</v>
+      </c>
+      <c r="J120" t="s">
+        <v>212</v>
+      </c>
+      <c r="K120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3000140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121">
+        <v>736</v>
+      </c>
+      <c r="G121" t="s">
+        <v>210</v>
+      </c>
+      <c r="H121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>211</v>
+      </c>
+      <c r="J121" t="s">
+        <v>212</v>
+      </c>
+      <c r="K121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>3000141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" t="s">
+        <v>424</v>
+      </c>
+      <c r="D122" t="s">
+        <v>255</v>
+      </c>
+      <c r="F122">
+        <v>736</v>
+      </c>
+      <c r="G122" t="s">
+        <v>210</v>
+      </c>
+      <c r="H122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>211</v>
+      </c>
+      <c r="J122" t="s">
+        <v>212</v>
+      </c>
+      <c r="K122" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>3000142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>425</v>
+      </c>
+      <c r="D123" t="s">
+        <v>257</v>
+      </c>
+      <c r="F123">
+        <v>736</v>
+      </c>
+      <c r="G123" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>211</v>
+      </c>
+      <c r="J123" t="s">
+        <v>212</v>
+      </c>
+      <c r="K123" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>3000143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>426</v>
+      </c>
+      <c r="D124" t="s">
+        <v>259</v>
+      </c>
+      <c r="F124">
+        <v>736</v>
+      </c>
+      <c r="G124" t="s">
+        <v>210</v>
+      </c>
+      <c r="H124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>211</v>
+      </c>
+      <c r="J124" t="s">
+        <v>212</v>
+      </c>
+      <c r="K124" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>3000144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
+        <v>427</v>
+      </c>
+      <c r="D125" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125">
+        <v>736</v>
+      </c>
+      <c r="G125" t="s">
+        <v>210</v>
+      </c>
+      <c r="H125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>211</v>
+      </c>
+      <c r="J125" t="s">
+        <v>212</v>
+      </c>
+      <c r="K125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>3000145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" t="s">
+        <v>263</v>
+      </c>
+      <c r="F126">
+        <v>736</v>
+      </c>
+      <c r="G126" t="s">
+        <v>210</v>
+      </c>
+      <c r="H126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>211</v>
+      </c>
+      <c r="J126" t="s">
+        <v>212</v>
+      </c>
+      <c r="K126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>3000146</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" t="s">
+        <v>265</v>
+      </c>
+      <c r="F127">
+        <v>736</v>
+      </c>
+      <c r="G127" t="s">
+        <v>210</v>
+      </c>
+      <c r="H127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>211</v>
+      </c>
+      <c r="J127" t="s">
+        <v>212</v>
+      </c>
+      <c r="K127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>3000147</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>430</v>
+      </c>
+      <c r="D128" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128">
+        <v>736</v>
+      </c>
+      <c r="G128" t="s">
+        <v>210</v>
+      </c>
+      <c r="H128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>211</v>
+      </c>
+      <c r="J128" t="s">
+        <v>212</v>
+      </c>
+      <c r="K128" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>3000148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>431</v>
+      </c>
+      <c r="D129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F129">
+        <v>801</v>
+      </c>
+      <c r="G129" t="s">
+        <v>210</v>
+      </c>
+      <c r="H129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>211</v>
+      </c>
+      <c r="J129" t="s">
+        <v>212</v>
+      </c>
+      <c r="K129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>3000149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>432</v>
+      </c>
+      <c r="D130" t="s">
+        <v>271</v>
+      </c>
+      <c r="F130">
+        <v>801</v>
+      </c>
+      <c r="G130" t="s">
+        <v>210</v>
+      </c>
+      <c r="H130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>211</v>
+      </c>
+      <c r="J130" t="s">
+        <v>212</v>
+      </c>
+      <c r="K130" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>3000150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>433</v>
+      </c>
+      <c r="D131" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131">
+        <v>801</v>
+      </c>
+      <c r="G131" t="s">
+        <v>210</v>
+      </c>
+      <c r="H131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>211</v>
+      </c>
+      <c r="J131" t="s">
+        <v>212</v>
+      </c>
+      <c r="K131" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>3000151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" t="s">
+        <v>434</v>
+      </c>
+      <c r="D132" t="s">
+        <v>275</v>
+      </c>
+      <c r="F132">
+        <v>801</v>
+      </c>
+      <c r="G132" t="s">
+        <v>210</v>
+      </c>
+      <c r="H132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>211</v>
+      </c>
+      <c r="J132" t="s">
+        <v>212</v>
+      </c>
+      <c r="K132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>3000152</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>435</v>
+      </c>
+      <c r="D133" t="s">
+        <v>277</v>
+      </c>
+      <c r="F133">
+        <v>801</v>
+      </c>
+      <c r="G133" t="s">
+        <v>210</v>
+      </c>
+      <c r="H133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>211</v>
+      </c>
+      <c r="J133" t="s">
+        <v>212</v>
+      </c>
+      <c r="K133" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>3000153</v>
+      </c>
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" t="s">
+        <v>436</v>
+      </c>
+      <c r="D134" t="s">
+        <v>279</v>
+      </c>
+      <c r="F134">
+        <v>801</v>
+      </c>
+      <c r="G134" t="s">
+        <v>210</v>
+      </c>
+      <c r="H134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>211</v>
+      </c>
+      <c r="J134" t="s">
+        <v>212</v>
+      </c>
+      <c r="K134" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>3000154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" t="s">
+        <v>281</v>
+      </c>
+      <c r="F135">
+        <v>801</v>
+      </c>
+      <c r="G135" t="s">
+        <v>210</v>
+      </c>
+      <c r="H135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>211</v>
+      </c>
+      <c r="J135" t="s">
+        <v>212</v>
+      </c>
+      <c r="K135" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>3000155</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>438</v>
+      </c>
+      <c r="D136" t="s">
+        <v>283</v>
+      </c>
+      <c r="F136">
+        <v>801</v>
+      </c>
+      <c r="G136" t="s">
+        <v>210</v>
+      </c>
+      <c r="H136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>211</v>
+      </c>
+      <c r="J136" t="s">
+        <v>212</v>
+      </c>
+      <c r="K136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>3000156</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" t="s">
+        <v>439</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137">
+        <v>801</v>
+      </c>
+      <c r="G137" t="s">
+        <v>210</v>
+      </c>
+      <c r="H137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>211</v>
+      </c>
+      <c r="J137" t="s">
+        <v>212</v>
+      </c>
+      <c r="K137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>3000157</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>440</v>
+      </c>
+      <c r="D138" t="s">
+        <v>287</v>
+      </c>
+      <c r="F138">
+        <v>920</v>
+      </c>
+      <c r="G138" t="s">
+        <v>210</v>
+      </c>
+      <c r="H138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>211</v>
+      </c>
+      <c r="J138" t="s">
+        <v>212</v>
+      </c>
+      <c r="K138" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>3000158</v>
+      </c>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139">
+        <v>920</v>
+      </c>
+      <c r="G139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>211</v>
+      </c>
+      <c r="J139" t="s">
+        <v>212</v>
+      </c>
+      <c r="K139" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>3000159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140">
+        <v>920</v>
+      </c>
+      <c r="G140" t="s">
+        <v>210</v>
+      </c>
+      <c r="H140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>211</v>
+      </c>
+      <c r="J140" t="s">
+        <v>212</v>
+      </c>
+      <c r="K140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>3000160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" t="s">
+        <v>293</v>
+      </c>
+      <c r="F141">
+        <v>920</v>
+      </c>
+      <c r="G141" t="s">
+        <v>210</v>
+      </c>
+      <c r="H141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>211</v>
+      </c>
+      <c r="J141" t="s">
+        <v>212</v>
+      </c>
+      <c r="K141" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>3000161</v>
+      </c>
+      <c r="B142" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142" t="s">
+        <v>295</v>
+      </c>
+      <c r="F142">
+        <v>920</v>
+      </c>
+      <c r="G142" t="s">
+        <v>210</v>
+      </c>
+      <c r="H142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>211</v>
+      </c>
+      <c r="J142" t="s">
+        <v>212</v>
+      </c>
+      <c r="K142" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>3000162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" t="s">
+        <v>445</v>
+      </c>
+      <c r="D143" t="s">
+        <v>297</v>
+      </c>
+      <c r="F143">
+        <v>920</v>
+      </c>
+      <c r="G143" t="s">
+        <v>210</v>
+      </c>
+      <c r="H143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>211</v>
+      </c>
+      <c r="J143" t="s">
+        <v>212</v>
+      </c>
+      <c r="K143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>3000163</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>446</v>
+      </c>
+      <c r="D144" t="s">
+        <v>299</v>
+      </c>
+      <c r="F144">
+        <v>920</v>
+      </c>
+      <c r="G144" t="s">
+        <v>210</v>
+      </c>
+      <c r="H144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>211</v>
+      </c>
+      <c r="J144" t="s">
+        <v>212</v>
+      </c>
+      <c r="K144" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>3000164</v>
+      </c>
+      <c r="B145" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" t="s">
+        <v>301</v>
+      </c>
+      <c r="F145">
+        <v>920</v>
+      </c>
+      <c r="G145" t="s">
+        <v>210</v>
+      </c>
+      <c r="H145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>211</v>
+      </c>
+      <c r="J145" t="s">
+        <v>212</v>
+      </c>
+      <c r="K145" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>3000165</v>
+      </c>
+      <c r="B146" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" t="s">
+        <v>448</v>
+      </c>
+      <c r="D146" t="s">
+        <v>303</v>
+      </c>
+      <c r="F146">
+        <v>920</v>
+      </c>
+      <c r="G146" t="s">
+        <v>210</v>
+      </c>
+      <c r="H146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J146" t="s">
+        <v>212</v>
+      </c>
+      <c r="K146" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>3000166</v>
+      </c>
+      <c r="B147" t="s">
+        <v>449</v>
+      </c>
+      <c r="C147" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" t="s">
+        <v>451</v>
+      </c>
+      <c r="F147">
+        <v>165</v>
+      </c>
+      <c r="G147" t="s">
+        <v>210</v>
+      </c>
+      <c r="H147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>211</v>
+      </c>
+      <c r="J147" t="s">
+        <v>212</v>
+      </c>
+      <c r="K147" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>3000167</v>
+      </c>
+      <c r="B148" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" t="s">
+        <v>453</v>
+      </c>
+      <c r="D148" t="s">
+        <v>454</v>
+      </c>
+      <c r="F148">
+        <v>327</v>
+      </c>
+      <c r="G148" t="s">
+        <v>210</v>
+      </c>
+      <c r="H148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J148" t="s">
+        <v>212</v>
+      </c>
+      <c r="K148" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>3000168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>455</v>
+      </c>
+      <c r="C149" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" t="s">
+        <v>457</v>
+      </c>
+      <c r="F149">
+        <v>736</v>
+      </c>
+      <c r="G149" t="s">
+        <v>210</v>
+      </c>
+      <c r="H149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>211</v>
+      </c>
+      <c r="J149" t="s">
+        <v>212</v>
+      </c>
+      <c r="K149" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>3000169</v>
+      </c>
+      <c r="B150" t="s">
+        <v>458</v>
+      </c>
+      <c r="C150" t="s">
+        <v>459</v>
+      </c>
+      <c r="D150" t="s">
+        <v>460</v>
+      </c>
+      <c r="F150">
+        <v>801</v>
+      </c>
+      <c r="G150" t="s">
+        <v>210</v>
+      </c>
+      <c r="H150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>211</v>
+      </c>
+      <c r="J150" t="s">
+        <v>212</v>
+      </c>
+      <c r="K150" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>3000170</v>
+      </c>
+      <c r="B151" t="s">
+        <v>461</v>
+      </c>
+      <c r="C151" t="s">
+        <v>462</v>
+      </c>
+      <c r="D151" t="s">
+        <v>463</v>
+      </c>
+      <c r="F151">
+        <v>920</v>
+      </c>
+      <c r="G151" t="s">
+        <v>210</v>
+      </c>
+      <c r="H151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>211</v>
+      </c>
+      <c r="J151" t="s">
+        <v>212</v>
+      </c>
+      <c r="K151" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>3000171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>464</v>
+      </c>
+      <c r="C152" t="s">
+        <v>465</v>
+      </c>
+      <c r="D152" t="s">
+        <v>466</v>
+      </c>
+      <c r="F152">
+        <v>165</v>
+      </c>
+      <c r="G152" t="s">
+        <v>210</v>
+      </c>
+      <c r="H152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>211</v>
+      </c>
+      <c r="J152" t="s">
+        <v>212</v>
+      </c>
+      <c r="K152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>3000172</v>
+      </c>
+      <c r="B153" t="s">
+        <v>467</v>
+      </c>
+      <c r="C153" t="s">
+        <v>468</v>
+      </c>
+      <c r="D153" t="s">
+        <v>469</v>
+      </c>
+      <c r="F153">
+        <v>327</v>
+      </c>
+      <c r="G153" t="s">
+        <v>210</v>
+      </c>
+      <c r="H153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>211</v>
+      </c>
+      <c r="J153" t="s">
+        <v>212</v>
+      </c>
+      <c r="K153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>3000173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>470</v>
+      </c>
+      <c r="C154" t="s">
+        <v>471</v>
+      </c>
+      <c r="D154" t="s">
+        <v>472</v>
+      </c>
+      <c r="F154">
+        <v>736</v>
+      </c>
+      <c r="G154" t="s">
+        <v>210</v>
+      </c>
+      <c r="H154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>211</v>
+      </c>
+      <c r="J154" t="s">
+        <v>212</v>
+      </c>
+      <c r="K154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>3000174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" t="s">
+        <v>474</v>
+      </c>
+      <c r="D155" t="s">
+        <v>475</v>
+      </c>
+      <c r="F155">
+        <v>801</v>
+      </c>
+      <c r="G155" t="s">
+        <v>210</v>
+      </c>
+      <c r="H155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>211</v>
+      </c>
+      <c r="J155" t="s">
+        <v>212</v>
+      </c>
+      <c r="K155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>3000175</v>
+      </c>
+      <c r="B156" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" t="s">
+        <v>477</v>
+      </c>
+      <c r="D156" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156">
+        <v>920</v>
+      </c>
+      <c r="G156" t="s">
+        <v>210</v>
+      </c>
+      <c r="H156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>211</v>
+      </c>
+      <c r="J156" t="s">
+        <v>212</v>
+      </c>
+      <c r="K156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>3000176</v>
+      </c>
+      <c r="B157" t="s">
+        <v>479</v>
+      </c>
+      <c r="C157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D157" t="s">
+        <v>481</v>
+      </c>
+      <c r="F157">
+        <v>165</v>
+      </c>
+      <c r="G157" t="s">
+        <v>210</v>
+      </c>
+      <c r="H157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>211</v>
+      </c>
+      <c r="J157" t="s">
+        <v>212</v>
+      </c>
+      <c r="K157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>3000177</v>
+      </c>
+      <c r="B158" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" t="s">
+        <v>483</v>
+      </c>
+      <c r="D158" t="s">
+        <v>484</v>
+      </c>
+      <c r="F158">
+        <v>327</v>
+      </c>
+      <c r="G158" t="s">
+        <v>210</v>
+      </c>
+      <c r="H158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>211</v>
+      </c>
+      <c r="J158" t="s">
+        <v>212</v>
+      </c>
+      <c r="K158" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>3000178</v>
+      </c>
+      <c r="B159" t="s">
+        <v>485</v>
+      </c>
+      <c r="C159" t="s">
+        <v>486</v>
+      </c>
+      <c r="D159" t="s">
+        <v>487</v>
+      </c>
+      <c r="F159">
+        <v>736</v>
+      </c>
+      <c r="G159" t="s">
+        <v>210</v>
+      </c>
+      <c r="H159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>211</v>
+      </c>
+      <c r="J159" t="s">
+        <v>212</v>
+      </c>
+      <c r="K159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>3000179</v>
+      </c>
+      <c r="B160" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160" t="s">
+        <v>489</v>
+      </c>
+      <c r="D160" t="s">
+        <v>490</v>
+      </c>
+      <c r="F160">
+        <v>801</v>
+      </c>
+      <c r="G160" t="s">
+        <v>210</v>
+      </c>
+      <c r="H160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+      <c r="J160" t="s">
+        <v>212</v>
+      </c>
+      <c r="K160" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>3000180</v>
+      </c>
+      <c r="B161" t="s">
+        <v>491</v>
+      </c>
+      <c r="C161" t="s">
+        <v>492</v>
+      </c>
+      <c r="D161" t="s">
+        <v>493</v>
+      </c>
+      <c r="F161">
+        <v>920</v>
+      </c>
+      <c r="G161" t="s">
+        <v>210</v>
+      </c>
+      <c r="H161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>211</v>
+      </c>
+      <c r="J161" t="s">
+        <v>212</v>
+      </c>
+      <c r="K161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H166" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
